--- a/CardGame/Assets/Excel/CardData.xlsx
+++ b/CardGame/Assets/Excel/CardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Card\CardGame\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C3F2A5-CE60-4490-98BE-7FC0B4B86A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4155E228-17FB-4CAD-A0B8-78C883ADD377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15705" yWindow="3510" windowWidth="19380" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18525" yWindow="3510" windowWidth="19380" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
   <si>
     <t>id</t>
   </si>
@@ -166,6 +166,117 @@
   </si>
   <si>
     <t>POISON</t>
+  </si>
+  <si>
+    <t>101003A</t>
+  </si>
+  <si>
+    <t>101003B</t>
+  </si>
+  <si>
+    <t>101003C</t>
+  </si>
+  <si>
+    <t>Stone_001</t>
+  </si>
+  <si>
+    <t>Stone_002</t>
+  </si>
+  <si>
+    <t>Stone_003</t>
+  </si>
+  <si>
+    <t>작은 조약돌</t>
+  </si>
+  <si>
+    <t>따뜻한 조약돌</t>
+  </si>
+  <si>
+    <t>뜨거운 조약돌</t>
+  </si>
+  <si>
+    <t>FIRE</t>
+  </si>
+  <si>
+    <t>어느 마을에 사는 5살 꼬마는 예쁜 돌을 모으는게 취미라고 합니다.</t>
+  </si>
+  <si>
+    <t>핫팩보다 좋습니다.</t>
+  </si>
+  <si>
+    <t>손이 데이지 않게 조심하세요</t>
+  </si>
+  <si>
+    <t>101004A</t>
+  </si>
+  <si>
+    <t>101004B</t>
+  </si>
+  <si>
+    <t>101004C</t>
+  </si>
+  <si>
+    <t>BounceBall_001</t>
+  </si>
+  <si>
+    <t>BounceBall_002</t>
+  </si>
+  <si>
+    <t>BounceBall_003</t>
+  </si>
+  <si>
+    <t>탱탱볼 두개</t>
+  </si>
+  <si>
+    <t>탱탱볼 한개</t>
+  </si>
+  <si>
+    <t>탱탱볼 여러 개</t>
+  </si>
+  <si>
+    <t>아이코 뼈 맞았네</t>
+  </si>
+  <si>
+    <t>아이코 뼈 두번 맞았네</t>
+  </si>
+  <si>
+    <t>한번에 4개를 던지니 하나씩 빗나가지</t>
+  </si>
+  <si>
+    <t>101005A</t>
+  </si>
+  <si>
+    <t>101005B</t>
+  </si>
+  <si>
+    <t>101005C</t>
+  </si>
+  <si>
+    <t>Boomerang_001</t>
+  </si>
+  <si>
+    <t>Boomerang_002</t>
+  </si>
+  <si>
+    <t>Boomerang_003</t>
+  </si>
+  <si>
+    <t>부메랑</t>
+  </si>
+  <si>
+    <t>튼튼한 부메랑</t>
+  </si>
+  <si>
+    <t>강화된 부메랑</t>
+  </si>
+  <si>
+    <t>초승달 처럼 생겼습니다. (반짝!)</t>
+  </si>
+  <si>
+    <t>아프지 않게 두꺼운 장갑을 꼭 착용하세요.</t>
+  </si>
+  <si>
+    <t>묵직한 한방 (나도 한방)</t>
   </si>
 </sst>
 </file>
@@ -483,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,6 +1043,561 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CardGame/Assets/Excel/CardData.xlsx
+++ b/CardGame/Assets/Excel/CardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Card\CardGame\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4155E228-17FB-4CAD-A0B8-78C883ADD377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7498AF55-9C10-405F-8E13-284A06122105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18525" yWindow="3510" windowWidth="19380" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -277,6 +277,18 @@
   </si>
   <si>
     <t>묵직한 한방 (나도 한방)</t>
+  </si>
+  <si>
+    <t>적에게 [ad]만큼 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>돌을 던져 적에게 [ad]만큼 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>탱탱볼을 던져 적에게 [ad]만큼 피해를 줍니다. 탱탱볼은 적을 맞추고 나에게 돌아와 [had]만큼 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>부메랑을 던져 적에게 [ad]만큼 피해를 줍니다. 부메랑은 적을 맞추고 나에게 돌아와 [had]만큼 피해를 줍니다.</t>
   </si>
 </sst>
 </file>
@@ -597,7 +609,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,6 +618,7 @@
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -697,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="J2" t="s">
         <v>40</v>
@@ -759,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="J3" t="s">
         <v>41</v>
@@ -821,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="J4" t="s">
         <v>42</v>
@@ -883,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s">
         <v>43</v>
@@ -945,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
         <v>44</v>
@@ -1007,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
         <v>45</v>
@@ -1069,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
         <v>57</v>
@@ -1131,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="J9" t="s">
         <v>58</v>
@@ -1193,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s">
         <v>59</v>
@@ -1255,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s">
         <v>69</v>
@@ -1317,7 +1330,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s">
         <v>70</v>
@@ -1379,7 +1392,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s">
         <v>71</v>
@@ -1441,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s">
         <v>81</v>
@@ -1500,7 +1513,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s">
         <v>82</v>
@@ -1562,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s">
         <v>83</v>

--- a/CardGame/Assets/Excel/CardData.xlsx
+++ b/CardGame/Assets/Excel/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Card\CardGame\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7498AF55-9C10-405F-8E13-284A06122105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06E7DFE-DB16-49FE-9B1D-9E3C4716A114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,7 +609,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">

--- a/CardGame/Assets/Excel/CardData.xlsx
+++ b/CardGame/Assets/Excel/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Card\CardGame\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06E7DFE-DB16-49FE-9B1D-9E3C4716A114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A88BDD-14D7-4C4B-B6CC-36FEDB7F9168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="182">
   <si>
     <t>id</t>
   </si>
@@ -289,19 +289,307 @@
   </si>
   <si>
     <t>부메랑을 던져 적에게 [ad]만큼 피해를 줍니다. 부메랑은 적을 맞추고 나에게 돌아와 [had]만큼 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>101006A</t>
+  </si>
+  <si>
+    <t>101006N</t>
+  </si>
+  <si>
+    <t>101006I</t>
+  </si>
+  <si>
+    <t>Acorn_001</t>
+  </si>
+  <si>
+    <t>Acorn_002</t>
+  </si>
+  <si>
+    <t>Acorn_003</t>
+  </si>
+  <si>
+    <t>도토리</t>
+  </si>
+  <si>
+    <t>적에게 도토리를 던져 [ad]만큼의 피해를 줍니다. 강화를 하면 다람쥐 공장에 도토리를 맡깁니다.</t>
+  </si>
+  <si>
+    <t>이 카드를 만들면 내 덱에 도토리(무한의 도토리) 2개를 섞어넣습니다.  두개의 공장을 합치면 무한의 도토리를 만듭니다.</t>
+  </si>
+  <si>
+    <t>적에게 도토리를 [ra]회 던져 [ad]만큼의 피해를 줍니다. 강화를 하면 다람쥐 공장에 도토리를 맡깁니다.</t>
+  </si>
+  <si>
+    <t>일단 맞으면 기분이 나쁩니다.</t>
+  </si>
+  <si>
+    <t>다람쥐는 도토리 두개로 도토리 4개를 만듭니다. 손해보는 장사 ㅠㅠ</t>
+  </si>
+  <si>
+    <t>다람쥐 여러개 통통통</t>
+  </si>
+  <si>
+    <t>101007A</t>
+  </si>
+  <si>
+    <t>101007B</t>
+  </si>
+  <si>
+    <t>101007C</t>
+  </si>
+  <si>
+    <t>Spear_001</t>
+  </si>
+  <si>
+    <t>Spear_002</t>
+  </si>
+  <si>
+    <t>Spear_003</t>
+  </si>
+  <si>
+    <t>긴 창</t>
+  </si>
+  <si>
+    <t>더욱더 긴 창</t>
+  </si>
+  <si>
+    <t>너무나도 긴 창</t>
+  </si>
+  <si>
+    <t>적에게 창을 던져 [ad]만큼 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>긴창으로 적을 찔러 [ad]만큼 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>101008A</t>
+  </si>
+  <si>
+    <t>ThrowingAxe_001</t>
+  </si>
+  <si>
+    <t>ThrowingAxe_002</t>
+  </si>
+  <si>
+    <t>ThrowingAxe_003</t>
+  </si>
+  <si>
+    <t>101008B</t>
+  </si>
+  <si>
+    <t>101008C</t>
+  </si>
+  <si>
+    <t>투척용 도끼</t>
+  </si>
+  <si>
+    <t>투척용 도끼 두자루</t>
+  </si>
+  <si>
+    <t>마력이 깃든 도끼</t>
+  </si>
+  <si>
+    <t>다람쥐 공장 + [ra]</t>
+  </si>
+  <si>
+    <t>무한의 도토리 + [ra]</t>
+  </si>
+  <si>
+    <t>도끼를 던져 적에게 [ad]만큼 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>도끼를 두자루 던저 적에게 [ad]만큼 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>도끼를 던져 적에게 [ad]만큼 마법 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>101009A</t>
+  </si>
+  <si>
+    <t>창 피할줄 알아!</t>
+  </si>
+  <si>
+    <t>창 피할줄 알라고!</t>
+  </si>
+  <si>
+    <t>창 피하지마!</t>
+  </si>
+  <si>
+    <t>도끼는 나무를 벨때 쓰세요</t>
+  </si>
+  <si>
+    <t>도끼가 둘이면 두배로 쓰러트리죠</t>
+  </si>
+  <si>
+    <t>도끼를 샘물에 빠뜨렸더니?</t>
+  </si>
+  <si>
+    <t>101009B</t>
+  </si>
+  <si>
+    <t>101009C</t>
+  </si>
+  <si>
+    <t>Chicken_001</t>
+  </si>
+  <si>
+    <t>Chicken_002</t>
+  </si>
+  <si>
+    <t>Chicken_003</t>
+  </si>
+  <si>
+    <t>닭</t>
+  </si>
+  <si>
+    <t>닭 다리</t>
+  </si>
+  <si>
+    <t>전설의 닭 다리</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>적에게 닭을 던져 [ad]만큼의 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>적을 미끄러운 닭 다리로 때려 [ad]만큼의 피해를 주고 기름을 묻혀 2턴동안 적의 시야를 흐리게 합니다.</t>
+  </si>
+  <si>
+    <t>닭은 무기가 아니에요.</t>
+  </si>
+  <si>
+    <t>음식을 가지고 놀면 못써요.</t>
+  </si>
+  <si>
+    <t>맛있는 음식을 낭비하지 마세요.</t>
+  </si>
+  <si>
+    <t>전설의 닭 다리로 적을 때려 [ad]만큼의 피해를 주고 2턴동안 적에게 화상을 부여합니다.</t>
+  </si>
+  <si>
+    <t>BURN</t>
+  </si>
+  <si>
+    <t>BLIND</t>
+  </si>
+  <si>
+    <t>돌을 던져 적에게 [ad]만큼 피해를 주고 화상을 부여합니다.</t>
+  </si>
+  <si>
+    <t>101010A</t>
+  </si>
+  <si>
+    <t>101010B</t>
+  </si>
+  <si>
+    <t>101010C</t>
+  </si>
+  <si>
+    <t>Hammer_001</t>
+  </si>
+  <si>
+    <t>Hammer_002</t>
+  </si>
+  <si>
+    <t>Hammer_003</t>
+  </si>
+  <si>
+    <t>뿅 망치</t>
+  </si>
+  <si>
+    <t>철 망치</t>
+  </si>
+  <si>
+    <t>이상한 망치</t>
+  </si>
+  <si>
+    <t>적을 뿅망치로 때려 [ad]만큼의 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>적을 망치로 때려 [ad]만큼의 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>뿅뿅뿅</t>
+  </si>
+  <si>
+    <t>깡깡깡</t>
+  </si>
+  <si>
+    <t>헤헤뿅뿅깡깡</t>
+  </si>
+  <si>
+    <t>SLOTH</t>
+  </si>
+  <si>
+    <t>101011J</t>
+  </si>
+  <si>
+    <t>101011T</t>
+  </si>
+  <si>
+    <t>101011H</t>
+  </si>
+  <si>
+    <t>JTH_001</t>
+  </si>
+  <si>
+    <t>JTH_002</t>
+  </si>
+  <si>
+    <t>JTH_003</t>
+  </si>
+  <si>
+    <t>JTH의 입김</t>
+  </si>
+  <si>
+    <t>JTH의 눈빛</t>
+  </si>
+  <si>
+    <t>JTH의 재채기</t>
+  </si>
+  <si>
+    <t>JTH의 적에게 입김을 불어 [ad]만큼의 피해를 줍니다. 적은 2턴동안 독데미지를 받고 시전자는 화상을 입습니다.</t>
+  </si>
+  <si>
+    <t>적을 망치로 때려 [ap]만큼의 피해를 주고 시전자를 2턴 동안 나태하게 만듭니다.</t>
+  </si>
+  <si>
+    <t>JTH가 적에게 재채기 합니다. [ad]만큼의 피해를 주고 남은 마나 1당 마나1을 잃고 반복합니다.</t>
+  </si>
+  <si>
+    <t>JTH는 양치를 하지 않나봐요</t>
+  </si>
+  <si>
+    <t>JTH의 눈은 빛이 나나봐요</t>
+  </si>
+  <si>
+    <t>bless you~</t>
+  </si>
+  <si>
+    <t>JTH가 적에게 윙크합니다. [ad]만큼의 피해를 주고 적과 자신을 나태하게 만듭니다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -324,8 +612,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -606,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="J10" t="s">
         <v>59</v>
@@ -1224,7 +1513,7 @@
         <v>39</v>
       </c>
       <c r="O10" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1465,6 +1754,9 @@
       <c r="L14">
         <v>0</v>
       </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
       <c r="N14" t="s">
         <v>39</v>
       </c>
@@ -1608,6 +1900,1122 @@
         <v>0</v>
       </c>
       <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20">
+        <v>8</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22">
+        <v>14</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>123</v>
+      </c>
+      <c r="J23" t="s">
+        <v>130</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>124</v>
+      </c>
+      <c r="J24" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" t="s">
+        <v>132</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>142</v>
+      </c>
+      <c r="J26" t="s">
+        <v>144</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" t="s">
+        <v>145</v>
+      </c>
+      <c r="K27">
+        <v>7</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>39</v>
+      </c>
+      <c r="O27" t="s">
+        <v>149</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J28" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28">
+        <v>15</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>39</v>
+      </c>
+      <c r="O28" t="s">
+        <v>148</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J29" t="s">
+        <v>162</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>39</v>
+      </c>
+      <c r="O29" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30" t="s">
+        <v>161</v>
+      </c>
+      <c r="J30" t="s">
+        <v>163</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>39</v>
+      </c>
+      <c r="O30" t="s">
+        <v>39</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31" t="s">
+        <v>176</v>
+      </c>
+      <c r="J31" t="s">
+        <v>164</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>15</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>165</v>
+      </c>
+      <c r="O31" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32" t="s">
+        <v>175</v>
+      </c>
+      <c r="J32" t="s">
+        <v>178</v>
+      </c>
+      <c r="K32">
+        <v>13</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
+        <v>148</v>
+      </c>
+      <c r="O32" t="s">
+        <v>46</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33" t="s">
+        <v>181</v>
+      </c>
+      <c r="J33" t="s">
+        <v>179</v>
+      </c>
+      <c r="K33">
+        <v>13</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>165</v>
+      </c>
+      <c r="O33" t="s">
+        <v>165</v>
+      </c>
+      <c r="P33">
+        <v>2</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34" t="s">
+        <v>177</v>
+      </c>
+      <c r="J34" t="s">
+        <v>180</v>
+      </c>
+      <c r="K34">
+        <v>7</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
         <v>0</v>
       </c>
     </row>

--- a/CardGame/Assets/Excel/CardData.xlsx
+++ b/CardGame/Assets/Excel/CardData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Card\CardGame\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A88BDD-14D7-4C4B-B6CC-36FEDB7F9168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F0E3F7-D57C-4C75-94F3-B55FAD13528D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="3450" windowWidth="19380" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="181">
   <si>
     <t>id</t>
   </si>
@@ -475,9 +475,6 @@
   </si>
   <si>
     <t>BLIND</t>
-  </si>
-  <si>
-    <t>돌을 던져 적에게 [ad]만큼 피해를 주고 화상을 부여합니다.</t>
   </si>
   <si>
     <t>101010A</t>
@@ -898,7 +895,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s">
         <v>59</v>
@@ -1513,7 +1510,7 @@
         <v>39</v>
       </c>
       <c r="O10" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1522,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <v>50</v>
@@ -2649,13 +2646,13 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2673,10 +2670,10 @@
         <v>3</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2711,13 +2708,13 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2735,10 +2732,10 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K30">
         <v>4</v>
@@ -2773,13 +2770,13 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2797,10 +2794,10 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2812,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O31" t="s">
         <v>39</v>
@@ -2835,13 +2832,13 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2859,10 +2856,10 @@
         <v>4</v>
       </c>
       <c r="I32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K32">
         <v>13</v>
@@ -2897,13 +2894,13 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2921,10 +2918,10 @@
         <v>4</v>
       </c>
       <c r="I33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K33">
         <v>13</v>
@@ -2936,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P33">
         <v>2</v>
@@ -2959,13 +2956,13 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2983,10 +2980,10 @@
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K34">
         <v>7</v>

--- a/CardGame/Assets/Excel/CardData.xlsx
+++ b/CardGame/Assets/Excel/CardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Card\CardGame\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F0E3F7-D57C-4C75-94F3-B55FAD13528D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F52189-2251-4AFB-BF9B-BA62B5ECB758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="3450" windowWidth="19380" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="1" r:id="rId1"/>
@@ -315,12 +315,6 @@
     <t>적에게 도토리를 던져 [ad]만큼의 피해를 줍니다. 강화를 하면 다람쥐 공장에 도토리를 맡깁니다.</t>
   </si>
   <si>
-    <t>이 카드를 만들면 내 덱에 도토리(무한의 도토리) 2개를 섞어넣습니다.  두개의 공장을 합치면 무한의 도토리를 만듭니다.</t>
-  </si>
-  <si>
-    <t>적에게 도토리를 [ra]회 던져 [ad]만큼의 피해를 줍니다. 강화를 하면 다람쥐 공장에 도토리를 맡깁니다.</t>
-  </si>
-  <si>
     <t>일단 맞으면 기분이 나쁩니다.</t>
   </si>
   <si>
@@ -568,6 +562,12 @@
   </si>
   <si>
     <t>JTH가 적에게 윙크합니다. [ad]만큼의 피해를 주고 적과 자신을 나태하게 만듭니다.</t>
+  </si>
+  <si>
+    <t>이 카드를 만들면 내 덱에 도토리를 4개를 섞어넣습니다.  두개의 공장을 합치면 무한의 도토리를 만듭니다.</t>
+  </si>
+  <si>
+    <t>적에게 도토리를 [ra]회 던져 [ad]만큼의 피해를 줍니다.  이 카드는 무한히 강화할 수 있습니다!</t>
   </si>
 </sst>
 </file>
@@ -895,7 +895,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,7 +904,7 @@
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="75.42578125" customWidth="1"/>
     <col min="10" max="10" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1929,10 +1929,10 @@
         <v>95</v>
       </c>
       <c r="J17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1988,10 +1988,10 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="J18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2032,10 +2032,10 @@
         <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -2050,10 +2050,10 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="J19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2088,13 +2088,13 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2112,10 +2112,10 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K20">
         <v>8</v>
@@ -2150,13 +2150,13 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2174,10 +2174,10 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K21">
         <v>10</v>
@@ -2212,13 +2212,13 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2236,10 +2236,10 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K22">
         <v>14</v>
@@ -2274,13 +2274,13 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2298,10 +2298,10 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2336,13 +2336,13 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2360,10 +2360,10 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K24">
         <v>4</v>
@@ -2398,13 +2398,13 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2422,10 +2422,10 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2460,13 +2460,13 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2484,10 +2484,10 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
+        <v>140</v>
+      </c>
+      <c r="J26" t="s">
         <v>142</v>
-      </c>
-      <c r="J26" t="s">
-        <v>144</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2522,13 +2522,13 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2546,10 +2546,10 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
+        <v>141</v>
+      </c>
+      <c r="J27" t="s">
         <v>143</v>
-      </c>
-      <c r="J27" t="s">
-        <v>145</v>
       </c>
       <c r="K27">
         <v>7</v>
@@ -2564,7 +2564,7 @@
         <v>39</v>
       </c>
       <c r="O27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2584,13 +2584,13 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2602,16 +2602,16 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H28">
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K28">
         <v>15</v>
@@ -2626,7 +2626,7 @@
         <v>39</v>
       </c>
       <c r="O28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2646,13 +2646,13 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2670,10 +2670,10 @@
         <v>3</v>
       </c>
       <c r="I29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J29" t="s">
         <v>159</v>
-      </c>
-      <c r="J29" t="s">
-        <v>161</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2708,13 +2708,13 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2732,10 +2732,10 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
+        <v>158</v>
+      </c>
+      <c r="J30" t="s">
         <v>160</v>
-      </c>
-      <c r="J30" t="s">
-        <v>162</v>
       </c>
       <c r="K30">
         <v>4</v>
@@ -2770,13 +2770,13 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2788,16 +2788,16 @@
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H31">
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O31" t="s">
         <v>39</v>
@@ -2832,13 +2832,13 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B32" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2856,10 +2856,10 @@
         <v>4</v>
       </c>
       <c r="I32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K32">
         <v>13</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O32" t="s">
         <v>46</v>
@@ -2894,13 +2894,13 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2918,10 +2918,10 @@
         <v>4</v>
       </c>
       <c r="I33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K33">
         <v>13</v>
@@ -2933,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P33">
         <v>2</v>
@@ -2956,13 +2956,13 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2980,10 +2980,10 @@
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K34">
         <v>7</v>

--- a/CardGame/Assets/Excel/CardData.xlsx
+++ b/CardGame/Assets/Excel/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Card\CardGame\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F52189-2251-4AFB-BF9B-BA62B5ECB758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C8AA66-C2A8-445E-B758-02280E6C8667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="182">
   <si>
     <t>id</t>
   </si>
@@ -282,9 +282,6 @@
     <t>적에게 [ad]만큼 피해를 줍니다.</t>
   </si>
   <si>
-    <t>돌을 던져 적에게 [ad]만큼 피해를 줍니다.</t>
-  </si>
-  <si>
     <t>탱탱볼을 던져 적에게 [ad]만큼 피해를 줍니다. 탱탱볼은 적을 맞추고 나에게 돌아와 [had]만큼 피해를 줍니다.</t>
   </si>
   <si>
@@ -384,9 +381,6 @@
     <t>마력이 깃든 도끼</t>
   </si>
   <si>
-    <t>다람쥐 공장 + [ra]</t>
-  </si>
-  <si>
     <t>무한의 도토리 + [ra]</t>
   </si>
   <si>
@@ -462,9 +456,6 @@
     <t>맛있는 음식을 낭비하지 마세요.</t>
   </si>
   <si>
-    <t>전설의 닭 다리로 적을 때려 [ad]만큼의 피해를 주고 2턴동안 적에게 화상을 부여합니다.</t>
-  </si>
-  <si>
     <t>BURN</t>
   </si>
   <si>
@@ -543,9 +534,6 @@
     <t>JTH의 재채기</t>
   </si>
   <si>
-    <t>JTH의 적에게 입김을 불어 [ad]만큼의 피해를 줍니다. 적은 2턴동안 독데미지를 받고 시전자는 화상을 입습니다.</t>
-  </si>
-  <si>
     <t>적을 망치로 때려 [ap]만큼의 피해를 주고 시전자를 2턴 동안 나태하게 만듭니다.</t>
   </si>
   <si>
@@ -568,6 +556,21 @@
   </si>
   <si>
     <t>적에게 도토리를 [ra]회 던져 [ad]만큼의 피해를 줍니다.  이 카드는 무한히 강화할 수 있습니다!</t>
+  </si>
+  <si>
+    <t>다람쥐 공장</t>
+  </si>
+  <si>
+    <t>전설의 닭 다리로 적을 때려 [ad]만큼의 피해를 주고 기름을 묻혀 2턴동안 적의 시야를 흐리게 합니다.</t>
+  </si>
+  <si>
+    <t>적에게 돌을 던져  [ad]만큼 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>JTH의 적에게 입김을 불어 [ad]만큼의 피해를 줍니다. 적은 2턴동안 독데미지를 받고 내 덱에 화상카드를 2장 섞어넣습니다.</t>
+  </si>
+  <si>
+    <t>적에게 돌을 던져  [ad]만큼 피해를 주고 내 덱에 화상카드를 2장 섞어넣습니다.</t>
   </si>
 </sst>
 </file>
@@ -895,7 +898,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="J8" t="s">
         <v>57</v>
@@ -1430,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="J9" t="s">
         <v>58</v>
@@ -1492,13 +1495,13 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="J10" t="s">
         <v>59</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1507,16 +1510,16 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="O10" t="s">
         <v>39</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1554,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s">
         <v>69</v>
@@ -1616,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s">
         <v>70</v>
@@ -1678,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s">
         <v>71</v>
@@ -1740,7 +1743,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s">
         <v>81</v>
@@ -1802,7 +1805,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s">
         <v>82</v>
@@ -1864,7 +1867,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J16" t="s">
         <v>83</v>
@@ -1902,13 +1905,13 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1926,10 +1929,10 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" t="s">
         <v>95</v>
-      </c>
-      <c r="J17" t="s">
-        <v>96</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1964,13 +1967,13 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1988,10 +1991,10 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2026,13 +2029,13 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -2050,10 +2053,10 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2088,13 +2091,13 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2112,10 +2115,10 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K20">
         <v>8</v>
@@ -2150,13 +2153,13 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2174,10 +2177,10 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K21">
         <v>10</v>
@@ -2212,13 +2215,13 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2236,10 +2239,10 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K22">
         <v>14</v>
@@ -2274,13 +2277,13 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="B23" t="s">
-        <v>111</v>
-      </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2298,10 +2301,10 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2336,13 +2339,13 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2360,10 +2363,10 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K24">
         <v>4</v>
@@ -2398,13 +2401,13 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2422,10 +2425,10 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2460,13 +2463,13 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2484,10 +2487,10 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J26" t="s">
         <v>140</v>
-      </c>
-      <c r="J26" t="s">
-        <v>142</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2522,13 +2525,13 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2546,10 +2549,10 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
+        <v>139</v>
+      </c>
+      <c r="J27" t="s">
         <v>141</v>
-      </c>
-      <c r="J27" t="s">
-        <v>143</v>
       </c>
       <c r="K27">
         <v>7</v>
@@ -2564,7 +2567,7 @@
         <v>39</v>
       </c>
       <c r="O27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2584,13 +2587,13 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2602,16 +2605,16 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H28">
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="J28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K28">
         <v>15</v>
@@ -2626,7 +2629,7 @@
         <v>39</v>
       </c>
       <c r="O28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2646,13 +2649,13 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
         <v>148</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>151</v>
-      </c>
-      <c r="C29" t="s">
-        <v>154</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2670,10 +2673,10 @@
         <v>3</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2708,13 +2711,13 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" t="s">
         <v>149</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>152</v>
-      </c>
-      <c r="C30" t="s">
-        <v>155</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2732,10 +2735,10 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K30">
         <v>4</v>
@@ -2770,13 +2773,13 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" t="s">
         <v>150</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>153</v>
-      </c>
-      <c r="C31" t="s">
-        <v>156</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2788,16 +2791,16 @@
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H31">
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J31" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2809,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O31" t="s">
         <v>39</v>
@@ -2832,13 +2835,13 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" t="s">
         <v>163</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>166</v>
-      </c>
-      <c r="C32" t="s">
-        <v>169</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2856,10 +2859,10 @@
         <v>4</v>
       </c>
       <c r="I32" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="J32" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K32">
         <v>13</v>
@@ -2871,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O32" t="s">
         <v>46</v>
@@ -2894,13 +2897,13 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" t="s">
         <v>164</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>167</v>
-      </c>
-      <c r="C33" t="s">
-        <v>170</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2918,10 +2921,10 @@
         <v>4</v>
       </c>
       <c r="I33" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J33" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K33">
         <v>13</v>
@@ -2933,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O33" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P33">
         <v>2</v>
@@ -2956,13 +2959,13 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" t="s">
         <v>165</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>168</v>
-      </c>
-      <c r="C34" t="s">
-        <v>171</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2980,10 +2983,10 @@
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J34" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K34">
         <v>7</v>

--- a/CardGame/Assets/Excel/CardData.xlsx
+++ b/CardGame/Assets/Excel/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Card\CardGame\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C8AA66-C2A8-445E-B758-02280E6C8667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0793C5-BCD5-4600-83DF-E6E9C8545226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="336">
   <si>
     <t>id</t>
   </si>
@@ -552,9 +552,6 @@
     <t>JTH가 적에게 윙크합니다. [ad]만큼의 피해를 주고 적과 자신을 나태하게 만듭니다.</t>
   </si>
   <si>
-    <t>이 카드를 만들면 내 덱에 도토리를 4개를 섞어넣습니다.  두개의 공장을 합치면 무한의 도토리를 만듭니다.</t>
-  </si>
-  <si>
     <t>적에게 도토리를 [ra]회 던져 [ad]만큼의 피해를 줍니다.  이 카드는 무한히 강화할 수 있습니다!</t>
   </si>
   <si>
@@ -571,6 +568,471 @@
   </si>
   <si>
     <t>적에게 돌을 던져  [ad]만큼 피해를 주고 내 덱에 화상카드를 2장 섞어넣습니다.</t>
+  </si>
+  <si>
+    <t>102012A</t>
+  </si>
+  <si>
+    <t>102012B</t>
+  </si>
+  <si>
+    <t>102012C</t>
+  </si>
+  <si>
+    <t>102013A</t>
+  </si>
+  <si>
+    <t>102013B</t>
+  </si>
+  <si>
+    <t>102013C</t>
+  </si>
+  <si>
+    <t>102014A</t>
+  </si>
+  <si>
+    <t>102014B</t>
+  </si>
+  <si>
+    <t>102014C</t>
+  </si>
+  <si>
+    <t>102015A</t>
+  </si>
+  <si>
+    <t>102015B</t>
+  </si>
+  <si>
+    <t>102015C</t>
+  </si>
+  <si>
+    <t>Shield_001</t>
+  </si>
+  <si>
+    <t>Shield_002</t>
+  </si>
+  <si>
+    <t>Shield_003</t>
+  </si>
+  <si>
+    <t>PotionA_001</t>
+  </si>
+  <si>
+    <t>PotionA_002</t>
+  </si>
+  <si>
+    <t>PotionA_003</t>
+  </si>
+  <si>
+    <t>PotionB_001</t>
+  </si>
+  <si>
+    <t>PotionB_002</t>
+  </si>
+  <si>
+    <t>PotionB_003</t>
+  </si>
+  <si>
+    <t>WingedArmor_001</t>
+  </si>
+  <si>
+    <t>WingedArmor_002</t>
+  </si>
+  <si>
+    <t>WingedArmor_003</t>
+  </si>
+  <si>
+    <t>나무 방패</t>
+  </si>
+  <si>
+    <t>돌 방패</t>
+  </si>
+  <si>
+    <t>강철 방패</t>
+  </si>
+  <si>
+    <t>미량의 치유 물약</t>
+  </si>
+  <si>
+    <t>소량의 치유 물약</t>
+  </si>
+  <si>
+    <t>치유 물약</t>
+  </si>
+  <si>
+    <t>방어의 묘약</t>
+  </si>
+  <si>
+    <t>분노의 묘약</t>
+  </si>
+  <si>
+    <t>강화의 묘약</t>
+  </si>
+  <si>
+    <t>날개 달린 나무 갑옷</t>
+  </si>
+  <si>
+    <t>강화된 날개 달린 갑옷</t>
+  </si>
+  <si>
+    <t>반짝거리는 날개 달린 갑옷</t>
+  </si>
+  <si>
+    <t>WATER</t>
+  </si>
+  <si>
+    <t>FURY</t>
+  </si>
+  <si>
+    <t>DRAW</t>
+  </si>
+  <si>
+    <t>방어력을 [ad]만큼 얻습니다.</t>
+  </si>
+  <si>
+    <t>체력을 [ap]만큼 회복합니다.</t>
+  </si>
+  <si>
+    <t>폭주 상태이상을 얻습니다.</t>
+  </si>
+  <si>
+    <t>폭주 상태이상을 얻습니다. 방어력을 [ad]만큼 얻습니다.</t>
+  </si>
+  <si>
+    <t>방어력을 [ad]만큼 얻습니다. 카드를 한장 뽑습니다.</t>
+  </si>
+  <si>
+    <t>102016A</t>
+  </si>
+  <si>
+    <t>102016N</t>
+  </si>
+  <si>
+    <t>102016I</t>
+  </si>
+  <si>
+    <t>102017A</t>
+  </si>
+  <si>
+    <t>102017B</t>
+  </si>
+  <si>
+    <t>102017C</t>
+  </si>
+  <si>
+    <t>102018A</t>
+  </si>
+  <si>
+    <t>102018B</t>
+  </si>
+  <si>
+    <t>102018C</t>
+  </si>
+  <si>
+    <t>102019A</t>
+  </si>
+  <si>
+    <t>102019B</t>
+  </si>
+  <si>
+    <t>102019C</t>
+  </si>
+  <si>
+    <t>102020A</t>
+  </si>
+  <si>
+    <t>102020B</t>
+  </si>
+  <si>
+    <t>102020C</t>
+  </si>
+  <si>
+    <t>102021A</t>
+  </si>
+  <si>
+    <t>102021B</t>
+  </si>
+  <si>
+    <t>102021C</t>
+  </si>
+  <si>
+    <t>102022J</t>
+  </si>
+  <si>
+    <t>102022T</t>
+  </si>
+  <si>
+    <t>102022C</t>
+  </si>
+  <si>
+    <t>Suit_001</t>
+  </si>
+  <si>
+    <t>Suit_002</t>
+  </si>
+  <si>
+    <t>Suit_003</t>
+  </si>
+  <si>
+    <t>WitchsFood_001</t>
+  </si>
+  <si>
+    <t>WitchsFood_002</t>
+  </si>
+  <si>
+    <t>WitchsFood_003</t>
+  </si>
+  <si>
+    <t>HeavyArmor_001</t>
+  </si>
+  <si>
+    <t>HeavyArmor_002</t>
+  </si>
+  <si>
+    <t>HeavyArmor_003</t>
+  </si>
+  <si>
+    <t>Leech_001</t>
+  </si>
+  <si>
+    <t>Leech_002</t>
+  </si>
+  <si>
+    <t>Leech_003</t>
+  </si>
+  <si>
+    <t>Crystal_001</t>
+  </si>
+  <si>
+    <t>Crystal_002</t>
+  </si>
+  <si>
+    <t>Crystal_003</t>
+  </si>
+  <si>
+    <t>Fairy_001</t>
+  </si>
+  <si>
+    <t>Fairy_002</t>
+  </si>
+  <si>
+    <t>Fairy_003</t>
+  </si>
+  <si>
+    <t>JTH_004</t>
+  </si>
+  <si>
+    <t>JTH_005</t>
+  </si>
+  <si>
+    <t>JTH_006</t>
+  </si>
+  <si>
+    <t>다람쥐 정장</t>
+  </si>
+  <si>
+    <t>다람쥐 재단소</t>
+  </si>
+  <si>
+    <t>단추가 추가된 정장 + [ra]</t>
+  </si>
+  <si>
+    <t>마녀의 사탕</t>
+  </si>
+  <si>
+    <t>마녀의 과자</t>
+  </si>
+  <si>
+    <t>마녀의 초콜릿</t>
+  </si>
+  <si>
+    <t>무거운 갑옷</t>
+  </si>
+  <si>
+    <t>더 무거운 갑옷</t>
+  </si>
+  <si>
+    <t>거인의 갑옷</t>
+  </si>
+  <si>
+    <t>흡혈 거머리</t>
+  </si>
+  <si>
+    <t>공주 거머리</t>
+  </si>
+  <si>
+    <t>여왕 거머리</t>
+  </si>
+  <si>
+    <t>수정 방패</t>
+  </si>
+  <si>
+    <t>자수정 방패</t>
+  </si>
+  <si>
+    <t>토파즈 방패</t>
+  </si>
+  <si>
+    <t>요정 가루</t>
+  </si>
+  <si>
+    <t>요정 가루 주머니</t>
+  </si>
+  <si>
+    <t>병속의 요정</t>
+  </si>
+  <si>
+    <t>JTH의 눈물</t>
+  </si>
+  <si>
+    <t>JTH의 손길</t>
+  </si>
+  <si>
+    <t>JTH의 포옹</t>
+  </si>
+  <si>
+    <t>방어력을 [ad]만큼 얻습니다. 이 카드는 무한히 강화할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>두개의 공장을 합치면 무한의 도토리를 만듭니다.</t>
+  </si>
+  <si>
+    <t>두개의 재단소를 합치면 단추가 추가된 정장을 만듭니다.</t>
+  </si>
+  <si>
+    <t>체력을 [fd]만큼 회복합니다. 만약 체력이 가득 찼다면 남은 만큼 방어력을 얻습니다.</t>
+  </si>
+  <si>
+    <t>체력을 [fd]만큼 회복합니다. 만약 체력이 가득 찼다면 남은 만큼 방어력을 얻습니다. 시전자에게 화상을 부여합니다.</t>
+  </si>
+  <si>
+    <t>일시적으로 [fd]체력을 얻습니다. 한턴에 [fdd]씩 2턴에 걸쳐 체력을 잃습니다.</t>
+  </si>
+  <si>
+    <t>이번턴 동안 무적 상태가 됩니다.</t>
+  </si>
+  <si>
+    <t>방어력을 [ad]만큼 얻습니다. 다음턴에 마나를 1 더 얻습니다.</t>
+  </si>
+  <si>
+    <t>방어력을 [ad]만큼 얻습니다. 다음턴에 마나를 2 더 얻습니다.</t>
+  </si>
+  <si>
+    <t>즉시 체력을 [ap]만큼 회복합니다.</t>
+  </si>
+  <si>
+    <t>무적 상태가 되고 남은 마나 1당 [ap]만큼의 체력을 얻습니다. 만약 체력이 가득 찼다면 남은 만큼 방어력을 얻습니다.</t>
+  </si>
+  <si>
+    <t>OVERHEALING</t>
+  </si>
+  <si>
+    <t>GOD</t>
+  </si>
+  <si>
+    <t>TEMPORARY</t>
+  </si>
+  <si>
+    <t>MANA</t>
+  </si>
+  <si>
+    <t>나무를 뭉쳤더니 제법 방패 같아요.</t>
+  </si>
+  <si>
+    <t>방패처럼 생겼길래 방패로 씁니다.</t>
+  </si>
+  <si>
+    <t>강철로 열심히 만든 방패입니다.</t>
+  </si>
+  <si>
+    <t>뾰족귀들은 물약을 비싸게 팔기위해 양을 줄였다네요.</t>
+  </si>
+  <si>
+    <t>뾰족귀들은 물약을 비싸게 팔기위해 양을 진짜 많이 줄였다네요.(사기꾼)</t>
+  </si>
+  <si>
+    <t>길쭉귀 마을의 명물</t>
+  </si>
+  <si>
+    <t>화난 돌이 되었군요!</t>
+  </si>
+  <si>
+    <t>한 인간은 요정처럼 날고 싶었어요.</t>
+  </si>
+  <si>
+    <t>돌이 되기 싫다고 화내지 마세요.</t>
+  </si>
+  <si>
+    <t>당신도 돌이 될 수 있어요.</t>
+  </si>
+  <si>
+    <t>요정이 되고싶었던 아버지를 보고 아들이 만든 역작</t>
+  </si>
+  <si>
+    <t>요정이 되고싶었던 아버지를 보고 아들 친구가 잘 만들었대요.</t>
+  </si>
+  <si>
+    <t>결혼식을 하지만 단추가 마음에 들지 않았어요.</t>
+  </si>
+  <si>
+    <t>다람쥐 마을에서 소문난 정장 장인입니다.</t>
+  </si>
+  <si>
+    <t>다람쥐는 결혼식이 걱정되기 시작했어요.</t>
+  </si>
+  <si>
+    <t>마녀의 사탕은 달콤해 보여요.</t>
+  </si>
+  <si>
+    <t>마녀의 초콜릿은 달콤해 보여요.</t>
+  </si>
+  <si>
+    <t>마녀의 과자는 달콤하지만 뜨거워요.</t>
+  </si>
+  <si>
+    <t>키 큰 사람을 위한 갑옷(190cm이상만 착용가능)</t>
+  </si>
+  <si>
+    <t>키 크고 힘이 센 사람을 위한 갑옷</t>
+  </si>
+  <si>
+    <t>인간을 위한 갑옷이 아닌거 같아요.</t>
+  </si>
+  <si>
+    <t>일시적으로 수혈해주는 귀여운 거머리</t>
+  </si>
+  <si>
+    <t>공주님은 알바중이에요</t>
+  </si>
+  <si>
+    <t>여왕님에게 고개를 조아리세요!</t>
+  </si>
+  <si>
+    <t>반짝반짝 방패</t>
+  </si>
+  <si>
+    <t>보라색 당신은 너무 아름다워요.</t>
+  </si>
+  <si>
+    <t>호박 아닙니다. 목캔디 절대 아닙니다.</t>
+  </si>
+  <si>
+    <t>요정의 각질이라고 하면 요정이 슬퍼요.</t>
+  </si>
+  <si>
+    <t>주머니만으로도 치료가 되는것 같아요.</t>
+  </si>
+  <si>
+    <t>요정의 치유 능력은 최고입니다.</t>
+  </si>
+  <si>
+    <t>JTH도 울긴 하네요?</t>
+  </si>
+  <si>
+    <t>JTH손은 약손</t>
+  </si>
+  <si>
+    <t>안아줘요.</t>
   </si>
 </sst>
 </file>
@@ -895,10 +1357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J8" t="s">
         <v>57</v>
@@ -1433,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J9" t="s">
         <v>58</v>
@@ -1495,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J10" t="s">
         <v>59</v>
@@ -1973,7 +2435,7 @@
         <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1991,7 +2453,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>289</v>
       </c>
       <c r="J18" t="s">
         <v>96</v>
@@ -2053,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J19" t="s">
         <v>97</v>
@@ -2611,7 +3073,7 @@
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J28" t="s">
         <v>142</v>
@@ -2859,7 +3321,7 @@
         <v>4</v>
       </c>
       <c r="I32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J32" t="s">
         <v>171</v>
@@ -3016,6 +3478,2052 @@
         <v>0</v>
       </c>
       <c r="T34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" t="s">
+        <v>205</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>220</v>
+      </c>
+      <c r="J35" t="s">
+        <v>303</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>39</v>
+      </c>
+      <c r="O35" t="s">
+        <v>39</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>220</v>
+      </c>
+      <c r="J36" t="s">
+        <v>304</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
+        <v>39</v>
+      </c>
+      <c r="O36" t="s">
+        <v>39</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>220</v>
+      </c>
+      <c r="J37" t="s">
+        <v>305</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>39</v>
+      </c>
+      <c r="O37" t="s">
+        <v>39</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>217</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>221</v>
+      </c>
+      <c r="J38" t="s">
+        <v>307</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
+        <v>39</v>
+      </c>
+      <c r="O38" t="s">
+        <v>39</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>217</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>221</v>
+      </c>
+      <c r="J39" t="s">
+        <v>306</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
+        <v>39</v>
+      </c>
+      <c r="O39" t="s">
+        <v>39</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" t="s">
+        <v>210</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>217</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>221</v>
+      </c>
+      <c r="J40" t="s">
+        <v>308</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>39</v>
+      </c>
+      <c r="O40" t="s">
+        <v>39</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>220</v>
+      </c>
+      <c r="J41" t="s">
+        <v>312</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
+        <v>39</v>
+      </c>
+      <c r="O41" t="s">
+        <v>39</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>222</v>
+      </c>
+      <c r="J42" t="s">
+        <v>311</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>218</v>
+      </c>
+      <c r="O42" t="s">
+        <v>39</v>
+      </c>
+      <c r="P42">
+        <v>2</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" t="s">
+        <v>213</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>223</v>
+      </c>
+      <c r="J43" t="s">
+        <v>309</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
+        <v>218</v>
+      </c>
+      <c r="O43" t="s">
+        <v>39</v>
+      </c>
+      <c r="P43">
+        <v>2</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>190</v>
+      </c>
+      <c r="B44" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" t="s">
+        <v>214</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>224</v>
+      </c>
+      <c r="J44" t="s">
+        <v>310</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>219</v>
+      </c>
+      <c r="O44" t="s">
+        <v>39</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>224</v>
+      </c>
+      <c r="J45" t="s">
+        <v>313</v>
+      </c>
+      <c r="K45">
+        <v>5</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
+        <v>219</v>
+      </c>
+      <c r="O45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>192</v>
+      </c>
+      <c r="B46" t="s">
+        <v>204</v>
+      </c>
+      <c r="C46" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>224</v>
+      </c>
+      <c r="J46" t="s">
+        <v>314</v>
+      </c>
+      <c r="K46">
+        <v>6</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>219</v>
+      </c>
+      <c r="O46" t="s">
+        <v>39</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>225</v>
+      </c>
+      <c r="B47" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" t="s">
+        <v>267</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47" t="s">
+        <v>220</v>
+      </c>
+      <c r="J47" t="s">
+        <v>315</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
+        <v>39</v>
+      </c>
+      <c r="O47" t="s">
+        <v>39</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>226</v>
+      </c>
+      <c r="B48" t="s">
+        <v>247</v>
+      </c>
+      <c r="C48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48" t="s">
+        <v>290</v>
+      </c>
+      <c r="J48" t="s">
+        <v>316</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
+        <v>39</v>
+      </c>
+      <c r="O48" t="s">
+        <v>39</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>227</v>
+      </c>
+      <c r="B49" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" t="s">
+        <v>269</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49" t="s">
+        <v>288</v>
+      </c>
+      <c r="J49" t="s">
+        <v>317</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
+        <v>39</v>
+      </c>
+      <c r="O49" t="s">
+        <v>39</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>228</v>
+      </c>
+      <c r="B50" t="s">
+        <v>249</v>
+      </c>
+      <c r="C50" t="s">
+        <v>270</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50" t="s">
+        <v>291</v>
+      </c>
+      <c r="J50" t="s">
+        <v>318</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>299</v>
+      </c>
+      <c r="O50" t="s">
+        <v>39</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>4</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>229</v>
+      </c>
+      <c r="B51" t="s">
+        <v>250</v>
+      </c>
+      <c r="C51" t="s">
+        <v>271</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51" t="s">
+        <v>292</v>
+      </c>
+      <c r="J51" t="s">
+        <v>320</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>6</v>
+      </c>
+      <c r="N51" t="s">
+        <v>299</v>
+      </c>
+      <c r="O51" t="s">
+        <v>143</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>6</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
+        <v>2</v>
+      </c>
+      <c r="T51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>230</v>
+      </c>
+      <c r="B52" t="s">
+        <v>251</v>
+      </c>
+      <c r="C52" t="s">
+        <v>272</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52" t="s">
+        <v>291</v>
+      </c>
+      <c r="J52" t="s">
+        <v>319</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>7</v>
+      </c>
+      <c r="N52" t="s">
+        <v>299</v>
+      </c>
+      <c r="O52" t="s">
+        <v>39</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>7</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>231</v>
+      </c>
+      <c r="B53" t="s">
+        <v>252</v>
+      </c>
+      <c r="C53" t="s">
+        <v>273</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>39</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53" t="s">
+        <v>220</v>
+      </c>
+      <c r="J53" t="s">
+        <v>321</v>
+      </c>
+      <c r="K53">
+        <v>10</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
+        <v>39</v>
+      </c>
+      <c r="O53" t="s">
+        <v>39</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>232</v>
+      </c>
+      <c r="B54" t="s">
+        <v>253</v>
+      </c>
+      <c r="C54" t="s">
+        <v>274</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>39</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54" t="s">
+        <v>220</v>
+      </c>
+      <c r="J54" t="s">
+        <v>322</v>
+      </c>
+      <c r="K54">
+        <v>14</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
+        <v>39</v>
+      </c>
+      <c r="O54" t="s">
+        <v>39</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>233</v>
+      </c>
+      <c r="B55" t="s">
+        <v>254</v>
+      </c>
+      <c r="C55" t="s">
+        <v>275</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>39</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55" t="s">
+        <v>220</v>
+      </c>
+      <c r="J55" t="s">
+        <v>323</v>
+      </c>
+      <c r="K55">
+        <v>18</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
+        <v>39</v>
+      </c>
+      <c r="O55" t="s">
+        <v>39</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>234</v>
+      </c>
+      <c r="B56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C56" t="s">
+        <v>276</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>39</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56" t="s">
+        <v>293</v>
+      </c>
+      <c r="J56" t="s">
+        <v>324</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>10</v>
+      </c>
+      <c r="N56" t="s">
+        <v>301</v>
+      </c>
+      <c r="O56" t="s">
+        <v>39</v>
+      </c>
+      <c r="P56">
+        <v>2</v>
+      </c>
+      <c r="Q56">
+        <v>10</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>235</v>
+      </c>
+      <c r="B57" t="s">
+        <v>256</v>
+      </c>
+      <c r="C57" t="s">
+        <v>277</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>39</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57" t="s">
+        <v>293</v>
+      </c>
+      <c r="J57" t="s">
+        <v>325</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>20</v>
+      </c>
+      <c r="N57" t="s">
+        <v>301</v>
+      </c>
+      <c r="O57" t="s">
+        <v>39</v>
+      </c>
+      <c r="P57">
+        <v>2</v>
+      </c>
+      <c r="Q57">
+        <v>20</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>236</v>
+      </c>
+      <c r="B58" t="s">
+        <v>257</v>
+      </c>
+      <c r="C58" t="s">
+        <v>278</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58" t="s">
+        <v>39</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58" t="s">
+        <v>294</v>
+      </c>
+      <c r="J58" t="s">
+        <v>326</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
+        <v>300</v>
+      </c>
+      <c r="O58" t="s">
+        <v>39</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>237</v>
+      </c>
+      <c r="B59" t="s">
+        <v>258</v>
+      </c>
+      <c r="C59" t="s">
+        <v>279</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59" t="s">
+        <v>39</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59" t="s">
+        <v>295</v>
+      </c>
+      <c r="J59" t="s">
+        <v>327</v>
+      </c>
+      <c r="K59">
+        <v>4</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
+        <v>302</v>
+      </c>
+      <c r="O59" t="s">
+        <v>39</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>238</v>
+      </c>
+      <c r="B60" t="s">
+        <v>259</v>
+      </c>
+      <c r="C60" t="s">
+        <v>280</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60" t="s">
+        <v>39</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60" t="s">
+        <v>295</v>
+      </c>
+      <c r="J60" t="s">
+        <v>328</v>
+      </c>
+      <c r="K60">
+        <v>5</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
+        <v>302</v>
+      </c>
+      <c r="O60" t="s">
+        <v>39</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>239</v>
+      </c>
+      <c r="B61" t="s">
+        <v>260</v>
+      </c>
+      <c r="C61" t="s">
+        <v>281</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61" t="s">
+        <v>39</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61" t="s">
+        <v>296</v>
+      </c>
+      <c r="J61" t="s">
+        <v>329</v>
+      </c>
+      <c r="K61">
+        <v>6</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
+        <v>302</v>
+      </c>
+      <c r="O61" t="s">
+        <v>39</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>2</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>240</v>
+      </c>
+      <c r="B62" t="s">
+        <v>261</v>
+      </c>
+      <c r="C62" t="s">
+        <v>282</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>39</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62" t="s">
+        <v>293</v>
+      </c>
+      <c r="J62" t="s">
+        <v>330</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>301</v>
+      </c>
+      <c r="O62" t="s">
+        <v>39</v>
+      </c>
+      <c r="P62">
+        <v>2</v>
+      </c>
+      <c r="Q62">
+        <v>4</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>241</v>
+      </c>
+      <c r="B63" t="s">
+        <v>262</v>
+      </c>
+      <c r="C63" t="s">
+        <v>283</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63" t="s">
+        <v>39</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63" t="s">
+        <v>221</v>
+      </c>
+      <c r="J63" t="s">
+        <v>331</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>5</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
+        <v>39</v>
+      </c>
+      <c r="O63" t="s">
+        <v>39</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>242</v>
+      </c>
+      <c r="B64" t="s">
+        <v>263</v>
+      </c>
+      <c r="C64" t="s">
+        <v>284</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64" t="s">
+        <v>39</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+      <c r="I64" t="s">
+        <v>291</v>
+      </c>
+      <c r="J64" t="s">
+        <v>332</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>6</v>
+      </c>
+      <c r="N64" t="s">
+        <v>299</v>
+      </c>
+      <c r="O64" t="s">
+        <v>39</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>6</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>243</v>
+      </c>
+      <c r="B65" t="s">
+        <v>264</v>
+      </c>
+      <c r="C65" t="s">
+        <v>285</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65" t="s">
+        <v>39</v>
+      </c>
+      <c r="H65">
+        <v>4</v>
+      </c>
+      <c r="I65" t="s">
+        <v>293</v>
+      </c>
+      <c r="J65" t="s">
+        <v>333</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>20</v>
+      </c>
+      <c r="N65" t="s">
+        <v>301</v>
+      </c>
+      <c r="O65" t="s">
+        <v>39</v>
+      </c>
+      <c r="P65">
+        <v>2</v>
+      </c>
+      <c r="Q65">
+        <v>20</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>244</v>
+      </c>
+      <c r="B66" t="s">
+        <v>265</v>
+      </c>
+      <c r="C66" t="s">
+        <v>286</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66" t="s">
+        <v>39</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="I66" t="s">
+        <v>297</v>
+      </c>
+      <c r="J66" t="s">
+        <v>334</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>20</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
+        <v>39</v>
+      </c>
+      <c r="O66" t="s">
+        <v>39</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>245</v>
+      </c>
+      <c r="B67" t="s">
+        <v>266</v>
+      </c>
+      <c r="C67" t="s">
+        <v>287</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+      <c r="G67" t="s">
+        <v>39</v>
+      </c>
+      <c r="H67">
+        <v>4</v>
+      </c>
+      <c r="I67" t="s">
+        <v>298</v>
+      </c>
+      <c r="J67" t="s">
+        <v>335</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>5</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
+        <v>299</v>
+      </c>
+      <c r="O67" t="s">
+        <v>39</v>
+      </c>
+      <c r="P67">
+        <v>5</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
         <v>0</v>
       </c>
     </row>

--- a/CardGame/Assets/Excel/CardData.xlsx
+++ b/CardGame/Assets/Excel/CardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Card\CardGame\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0793C5-BCD5-4600-83DF-E6E9C8545226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8A4212-DE6A-4F9A-8A28-43744DF157AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="2790" windowWidth="31680" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="1" r:id="rId1"/>
@@ -1359,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4298,7 +4298,7 @@
         <v>268</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>

--- a/CardGame/Assets/Excel/CardData.xlsx
+++ b/CardGame/Assets/Excel/CardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Card\CardGame\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8A4212-DE6A-4F9A-8A28-43744DF157AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF64E8D0-3EDD-4252-A9FB-DF8B4881B606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="2790" windowWidth="31680" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="31680" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="1" r:id="rId1"/>
@@ -1359,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3041,7 +3041,7 @@
         <v>2</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>0</v>

--- a/CardGame/Assets/Excel/CardData.xlsx
+++ b/CardGame/Assets/Excel/CardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Card\CardGame\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF64E8D0-3EDD-4252-A9FB-DF8B4881B606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B2FC74-2DE5-4D72-AF7A-1C90FD18C7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="31680" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="31680" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="398">
   <si>
     <t>id</t>
   </si>
@@ -1033,6 +1033,192 @@
   </si>
   <si>
     <t>안아줘요.</t>
+  </si>
+  <si>
+    <t>103023A</t>
+  </si>
+  <si>
+    <t>103023B</t>
+  </si>
+  <si>
+    <t>103023C</t>
+  </si>
+  <si>
+    <t>103024A</t>
+  </si>
+  <si>
+    <t>103024B</t>
+  </si>
+  <si>
+    <t>103024C</t>
+  </si>
+  <si>
+    <t>103025A</t>
+  </si>
+  <si>
+    <t>103025B</t>
+  </si>
+  <si>
+    <t>103025C</t>
+  </si>
+  <si>
+    <t>103026A</t>
+  </si>
+  <si>
+    <t>103026B</t>
+  </si>
+  <si>
+    <t>103026C</t>
+  </si>
+  <si>
+    <t>104027A</t>
+  </si>
+  <si>
+    <t>104028A</t>
+  </si>
+  <si>
+    <t>104028B</t>
+  </si>
+  <si>
+    <t>104028C</t>
+  </si>
+  <si>
+    <t>Sprint_001</t>
+  </si>
+  <si>
+    <t>Sprint_002</t>
+  </si>
+  <si>
+    <t>Sprint_003</t>
+  </si>
+  <si>
+    <t>Meditation_001</t>
+  </si>
+  <si>
+    <t>Meditation_002</t>
+  </si>
+  <si>
+    <t>Meditation_003</t>
+  </si>
+  <si>
+    <t>Excitement_001</t>
+  </si>
+  <si>
+    <t>Excitement_002</t>
+  </si>
+  <si>
+    <t>Excitement_003</t>
+  </si>
+  <si>
+    <t>Mana_001</t>
+  </si>
+  <si>
+    <t>Mana_002</t>
+  </si>
+  <si>
+    <t>Mana_003</t>
+  </si>
+  <si>
+    <t>Burn_001</t>
+  </si>
+  <si>
+    <t>Hallucination_001</t>
+  </si>
+  <si>
+    <t>Hallucination_002</t>
+  </si>
+  <si>
+    <t>Hallucination_003</t>
+  </si>
+  <si>
+    <t>질주</t>
+  </si>
+  <si>
+    <t>전력 질주</t>
+  </si>
+  <si>
+    <t>순간 이동</t>
+  </si>
+  <si>
+    <t>명상</t>
+  </si>
+  <si>
+    <t>마음의 안정</t>
+  </si>
+  <si>
+    <t>평화</t>
+  </si>
+  <si>
+    <t>흥분</t>
+  </si>
+  <si>
+    <t>광란</t>
+  </si>
+  <si>
+    <t>기선제압</t>
+  </si>
+  <si>
+    <t>산속의 샘물</t>
+  </si>
+  <si>
+    <t>요정의 샘물</t>
+  </si>
+  <si>
+    <t>요정 온천</t>
+  </si>
+  <si>
+    <t>화상</t>
+  </si>
+  <si>
+    <t>환각</t>
+  </si>
+  <si>
+    <t>환영</t>
+  </si>
+  <si>
+    <t>허상</t>
+  </si>
+  <si>
+    <t>카드를 한장 뽑습니다.</t>
+  </si>
+  <si>
+    <t>3 턴동안 자신을 나태 상태로 만듭니다.</t>
+  </si>
+  <si>
+    <t>2 턴동안 자신을 나태 상태로 만듭니다.</t>
+  </si>
+  <si>
+    <t>1 턴동안 자신을 나태 상태로 만들고 적을 3 턴 동안 나태 상태로 만듭니다.</t>
+  </si>
+  <si>
+    <t>2 턴 동안 자신을 폭주 상태로 만듭니다.</t>
+  </si>
+  <si>
+    <t>2 턴 동안 자신과 적을 폭주 상태로 만듭니다.</t>
+  </si>
+  <si>
+    <t>2 턴 동안 자신을 폭주 상태로 만들고 적을 흐림 상태로 만듭니다.</t>
+  </si>
+  <si>
+    <t>덱에 환각 카드 4장을 섞어넣습니다. 다음턴에 마나 2 더 얻습니다.</t>
+  </si>
+  <si>
+    <t>다음턴에 마나 2를 얻습니다.</t>
+  </si>
+  <si>
+    <t>카드를 사용하지 않으면 턴이 종료될때 자신에게 [ad]피해를 주고 사라집니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">강화하여 환영 카드를 만들 수 있습니다. </t>
+  </si>
+  <si>
+    <t>강화하여 허상 카드를 만들 수 있습니다.</t>
+  </si>
+  <si>
+    <t>사용하여 카드를 제거합니다. 모든 것은 허상입니다.</t>
+  </si>
+  <si>
+    <t>HALLUCINATION</t>
   </si>
 </sst>
 </file>
@@ -1357,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T67"/>
+  <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="S81" sqref="S81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5527,6 +5713,998 @@
         <v>0</v>
       </c>
     </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>336</v>
+      </c>
+      <c r="B68" t="s">
+        <v>352</v>
+      </c>
+      <c r="C68" t="s">
+        <v>368</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68" t="s">
+        <v>39</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68" t="s">
+        <v>384</v>
+      </c>
+      <c r="J68" t="s">
+        <v>8</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
+        <v>39</v>
+      </c>
+      <c r="O68" t="s">
+        <v>39</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>337</v>
+      </c>
+      <c r="B69" t="s">
+        <v>353</v>
+      </c>
+      <c r="C69" t="s">
+        <v>369</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>39</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69" t="s">
+        <v>384</v>
+      </c>
+      <c r="J69" t="s">
+        <v>8</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
+        <v>39</v>
+      </c>
+      <c r="O69" t="s">
+        <v>39</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>338</v>
+      </c>
+      <c r="B70" t="s">
+        <v>354</v>
+      </c>
+      <c r="C70" t="s">
+        <v>370</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>39</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70" t="s">
+        <v>384</v>
+      </c>
+      <c r="J70" t="s">
+        <v>8</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
+        <v>39</v>
+      </c>
+      <c r="O70" t="s">
+        <v>39</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>339</v>
+      </c>
+      <c r="B71" t="s">
+        <v>355</v>
+      </c>
+      <c r="C71" t="s">
+        <v>371</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71" t="s">
+        <v>39</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71" t="s">
+        <v>385</v>
+      </c>
+      <c r="J71" t="s">
+        <v>8</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
+        <v>159</v>
+      </c>
+      <c r="O71" t="s">
+        <v>39</v>
+      </c>
+      <c r="P71">
+        <v>3</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>340</v>
+      </c>
+      <c r="B72" t="s">
+        <v>356</v>
+      </c>
+      <c r="C72" t="s">
+        <v>372</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72" t="s">
+        <v>39</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72" t="s">
+        <v>386</v>
+      </c>
+      <c r="J72" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
+        <v>159</v>
+      </c>
+      <c r="O72" t="s">
+        <v>39</v>
+      </c>
+      <c r="P72">
+        <v>2</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>341</v>
+      </c>
+      <c r="B73" t="s">
+        <v>357</v>
+      </c>
+      <c r="C73" t="s">
+        <v>373</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>39</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73" t="s">
+        <v>387</v>
+      </c>
+      <c r="J73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73" t="s">
+        <v>159</v>
+      </c>
+      <c r="O73" t="s">
+        <v>159</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>3</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>342</v>
+      </c>
+      <c r="B74" t="s">
+        <v>358</v>
+      </c>
+      <c r="C74" t="s">
+        <v>374</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74" t="s">
+        <v>39</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74" t="s">
+        <v>388</v>
+      </c>
+      <c r="J74" t="s">
+        <v>8</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
+        <v>218</v>
+      </c>
+      <c r="O74" t="s">
+        <v>39</v>
+      </c>
+      <c r="P74">
+        <v>2</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>343</v>
+      </c>
+      <c r="B75" t="s">
+        <v>359</v>
+      </c>
+      <c r="C75" t="s">
+        <v>375</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75" t="s">
+        <v>39</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75" t="s">
+        <v>389</v>
+      </c>
+      <c r="J75" t="s">
+        <v>8</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
+        <v>218</v>
+      </c>
+      <c r="O75" t="s">
+        <v>218</v>
+      </c>
+      <c r="P75">
+        <v>2</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>2</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>344</v>
+      </c>
+      <c r="B76" t="s">
+        <v>360</v>
+      </c>
+      <c r="C76" t="s">
+        <v>376</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76" t="s">
+        <v>39</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76" t="s">
+        <v>390</v>
+      </c>
+      <c r="J76" t="s">
+        <v>8</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
+        <v>218</v>
+      </c>
+      <c r="O76" t="s">
+        <v>144</v>
+      </c>
+      <c r="P76">
+        <v>2</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>345</v>
+      </c>
+      <c r="B77" t="s">
+        <v>361</v>
+      </c>
+      <c r="C77" t="s">
+        <v>377</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>39</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77" t="s">
+        <v>391</v>
+      </c>
+      <c r="J77" t="s">
+        <v>8</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
+        <v>302</v>
+      </c>
+      <c r="O77" t="s">
+        <v>397</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>4</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>346</v>
+      </c>
+      <c r="B78" t="s">
+        <v>362</v>
+      </c>
+      <c r="C78" t="s">
+        <v>378</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>39</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="I78" t="s">
+        <v>391</v>
+      </c>
+      <c r="J78" t="s">
+        <v>8</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
+        <v>302</v>
+      </c>
+      <c r="O78" t="s">
+        <v>397</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>4</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>347</v>
+      </c>
+      <c r="B79" t="s">
+        <v>363</v>
+      </c>
+      <c r="C79" t="s">
+        <v>379</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>39</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+      <c r="I79" t="s">
+        <v>392</v>
+      </c>
+      <c r="J79" t="s">
+        <v>8</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
+        <v>302</v>
+      </c>
+      <c r="O79" t="s">
+        <v>39</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>348</v>
+      </c>
+      <c r="B80" t="s">
+        <v>364</v>
+      </c>
+      <c r="C80" t="s">
+        <v>380</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>39</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>393</v>
+      </c>
+      <c r="J80" t="s">
+        <v>8</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80" t="s">
+        <v>39</v>
+      </c>
+      <c r="O80" t="s">
+        <v>39</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>349</v>
+      </c>
+      <c r="B81" t="s">
+        <v>365</v>
+      </c>
+      <c r="C81" t="s">
+        <v>381</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>39</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>394</v>
+      </c>
+      <c r="J81" t="s">
+        <v>8</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81" t="s">
+        <v>39</v>
+      </c>
+      <c r="O81" t="s">
+        <v>39</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>350</v>
+      </c>
+      <c r="B82" t="s">
+        <v>366</v>
+      </c>
+      <c r="C82" t="s">
+        <v>382</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>39</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>395</v>
+      </c>
+      <c r="J82" t="s">
+        <v>8</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82" t="s">
+        <v>39</v>
+      </c>
+      <c r="O82" t="s">
+        <v>39</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>351</v>
+      </c>
+      <c r="B83" t="s">
+        <v>367</v>
+      </c>
+      <c r="C83" t="s">
+        <v>383</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>39</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>396</v>
+      </c>
+      <c r="J83" t="s">
+        <v>8</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
+        <v>39</v>
+      </c>
+      <c r="O83" t="s">
+        <v>39</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CardGame/Assets/Excel/CardData.xlsx
+++ b/CardGame/Assets/Excel/CardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Card\CardGame\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B2FC74-2DE5-4D72-AF7A-1C90FD18C7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABCC3AA-0B60-462F-937B-68BBA112C4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="31680" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="1" r:id="rId1"/>
@@ -687,21 +687,9 @@
     <t>DRAW</t>
   </si>
   <si>
-    <t>방어력을 [ad]만큼 얻습니다.</t>
-  </si>
-  <si>
-    <t>체력을 [ap]만큼 회복합니다.</t>
-  </si>
-  <si>
     <t>폭주 상태이상을 얻습니다.</t>
   </si>
   <si>
-    <t>폭주 상태이상을 얻습니다. 방어력을 [ad]만큼 얻습니다.</t>
-  </si>
-  <si>
-    <t>방어력을 [ad]만큼 얻습니다. 카드를 한장 뽑습니다.</t>
-  </si>
-  <si>
     <t>102016A</t>
   </si>
   <si>
@@ -891,39 +879,9 @@
     <t>JTH의 포옹</t>
   </si>
   <si>
-    <t>방어력을 [ad]만큼 얻습니다. 이 카드는 무한히 강화할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>두개의 공장을 합치면 무한의 도토리를 만듭니다.</t>
-  </si>
-  <si>
-    <t>두개의 재단소를 합치면 단추가 추가된 정장을 만듭니다.</t>
-  </si>
-  <si>
-    <t>체력을 [fd]만큼 회복합니다. 만약 체력이 가득 찼다면 남은 만큼 방어력을 얻습니다.</t>
-  </si>
-  <si>
-    <t>체력을 [fd]만큼 회복합니다. 만약 체력이 가득 찼다면 남은 만큼 방어력을 얻습니다. 시전자에게 화상을 부여합니다.</t>
-  </si>
-  <si>
-    <t>일시적으로 [fd]체력을 얻습니다. 한턴에 [fdd]씩 2턴에 걸쳐 체력을 잃습니다.</t>
-  </si>
-  <si>
     <t>이번턴 동안 무적 상태가 됩니다.</t>
   </si>
   <si>
-    <t>방어력을 [ad]만큼 얻습니다. 다음턴에 마나를 1 더 얻습니다.</t>
-  </si>
-  <si>
-    <t>방어력을 [ad]만큼 얻습니다. 다음턴에 마나를 2 더 얻습니다.</t>
-  </si>
-  <si>
-    <t>즉시 체력을 [ap]만큼 회복합니다.</t>
-  </si>
-  <si>
-    <t>무적 상태가 되고 남은 마나 1당 [ap]만큼의 체력을 얻습니다. 만약 체력이 가득 찼다면 남은 만큼 방어력을 얻습니다.</t>
-  </si>
-  <si>
     <t>OVERHEALING</t>
   </si>
   <si>
@@ -1219,6 +1177,48 @@
   </si>
   <si>
     <t>HALLUCINATION</t>
+  </si>
+  <si>
+    <t>방어력을 [adp]만큼 얻습니다.</t>
+  </si>
+  <si>
+    <t>체력을 [app]만큼 회복합니다.</t>
+  </si>
+  <si>
+    <t>폭주 상태이상을 얻습니다. 방어력을 [adp]만큼 얻습니다.</t>
+  </si>
+  <si>
+    <t>방어력을 [adp]만큼 얻습니다. 카드를 한장 뽑습니다.</t>
+  </si>
+  <si>
+    <t>방어력을 [adp]만큼 얻습니다. 이 카드는 무한히 강화할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>체력을 [fdp]만큼 회복합니다. 만약 체력이 가득 찼다면 남은 만큼 방어력을 얻습니다.</t>
+  </si>
+  <si>
+    <t>체력을 [fdp]만큼 회복합니다. 만약 체력이 가득 찼다면 남은 만큼 방어력을 얻습니다. 시전자에게 화상을 부여합니다.</t>
+  </si>
+  <si>
+    <t>일시적으로 [fdp]체력을 얻습니다. 한턴에 [fdd]씩 2턴에 걸쳐 체력을 잃습니다.</t>
+  </si>
+  <si>
+    <t>즉시 체력을 [app]만큼 회복합니다.</t>
+  </si>
+  <si>
+    <t>무적 상태가 되고 남은 마나 1당 [app]만큼의 체력을 얻습니다. 만약 체력이 가득 찼다면 남은 만큼 방어력을 얻습니다.</t>
+  </si>
+  <si>
+    <t>방어력을 [adp]만큼 얻습니다. 이번턴에 마나를 1 더 얻습니다.</t>
+  </si>
+  <si>
+    <t>방어력을 [adp]만큼 얻습니다. 이번턴에 마나를 2 더 얻습니다.</t>
+  </si>
+  <si>
+    <t>두개의 공장을 합치면 도토리 4장을 덱에 섞어 넣고 무한의 도토리를 만듭니다.</t>
+  </si>
+  <si>
+    <t>두개의 재단소를 합치면 다람쥐 정장 4장을 덱에 섞어 넣고 단추가 추가된 정장을 만듭니다.</t>
   </si>
 </sst>
 </file>
@@ -1545,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="S81" sqref="S81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,7 +1555,7 @@
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="75.42578125" customWidth="1"/>
+    <col min="9" max="9" width="117.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2639,7 +2639,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>289</v>
+        <v>396</v>
       </c>
       <c r="J18" t="s">
         <v>96</v>
@@ -3693,10 +3693,10 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>220</v>
+        <v>384</v>
       </c>
       <c r="J35" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -3755,10 +3755,10 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>220</v>
+        <v>384</v>
       </c>
       <c r="J36" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -3817,10 +3817,10 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>220</v>
+        <v>384</v>
       </c>
       <c r="J37" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="K37">
         <v>5</v>
@@ -3879,10 +3879,10 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>221</v>
+        <v>385</v>
       </c>
       <c r="J38" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3941,10 +3941,10 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>221</v>
+        <v>385</v>
       </c>
       <c r="J39" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -4003,10 +4003,10 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>221</v>
+        <v>385</v>
       </c>
       <c r="J40" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -4065,10 +4065,10 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>220</v>
+        <v>384</v>
       </c>
       <c r="J41" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="K41">
         <v>3</v>
@@ -4127,10 +4127,10 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J42" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -4189,10 +4189,10 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>223</v>
+        <v>386</v>
       </c>
       <c r="J43" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -4251,10 +4251,10 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>224</v>
+        <v>387</v>
       </c>
       <c r="J44" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="K44">
         <v>4</v>
@@ -4313,10 +4313,10 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>224</v>
+        <v>387</v>
       </c>
       <c r="J45" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="K45">
         <v>5</v>
@@ -4375,10 +4375,10 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>224</v>
+        <v>387</v>
       </c>
       <c r="J46" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="K46">
         <v>6</v>
@@ -4413,13 +4413,13 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B47" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C47" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -4437,10 +4437,10 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>220</v>
+        <v>384</v>
       </c>
       <c r="J47" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -4475,13 +4475,13 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B48" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C48" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -4499,10 +4499,10 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>290</v>
+        <v>397</v>
       </c>
       <c r="J48" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -4537,16 +4537,16 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B49" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C49" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -4561,10 +4561,10 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>288</v>
+        <v>388</v>
       </c>
       <c r="J49" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -4599,13 +4599,13 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B50" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C50" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>291</v>
+        <v>389</v>
       </c>
       <c r="J50" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="O50" t="s">
         <v>39</v>
@@ -4661,13 +4661,13 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B51" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C51" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -4685,10 +4685,10 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>292</v>
+        <v>390</v>
       </c>
       <c r="J51" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -4700,7 +4700,7 @@
         <v>6</v>
       </c>
       <c r="N51" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="O51" t="s">
         <v>143</v>
@@ -4715,7 +4715,7 @@
         <v>2</v>
       </c>
       <c r="S51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T51">
         <v>2</v>
@@ -4723,13 +4723,13 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B52" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C52" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -4747,10 +4747,10 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>291</v>
+        <v>389</v>
       </c>
       <c r="J52" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -4762,7 +4762,7 @@
         <v>7</v>
       </c>
       <c r="N52" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="O52" t="s">
         <v>39</v>
@@ -4785,13 +4785,13 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B53" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C53" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -4809,10 +4809,10 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>220</v>
+        <v>384</v>
       </c>
       <c r="J53" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="K53">
         <v>10</v>
@@ -4847,13 +4847,13 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B54" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C54" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -4871,10 +4871,10 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>220</v>
+        <v>384</v>
       </c>
       <c r="J54" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="K54">
         <v>14</v>
@@ -4909,13 +4909,13 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B55" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C55" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -4933,10 +4933,10 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>220</v>
+        <v>384</v>
       </c>
       <c r="J55" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="K55">
         <v>18</v>
@@ -4971,13 +4971,13 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B56" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C56" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -4995,10 +4995,10 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>293</v>
+        <v>391</v>
       </c>
       <c r="J56" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -5010,7 +5010,7 @@
         <v>10</v>
       </c>
       <c r="N56" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="O56" t="s">
         <v>39</v>
@@ -5033,13 +5033,13 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B57" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C57" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -5057,10 +5057,10 @@
         <v>3</v>
       </c>
       <c r="I57" t="s">
-        <v>293</v>
+        <v>391</v>
       </c>
       <c r="J57" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>20</v>
       </c>
       <c r="N57" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="O57" t="s">
         <v>39</v>
@@ -5095,13 +5095,13 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B58" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C58" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -5119,10 +5119,10 @@
         <v>3</v>
       </c>
       <c r="I58" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J58" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="O58" t="s">
         <v>39</v>
@@ -5157,13 +5157,13 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B59" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C59" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -5181,10 +5181,10 @@
         <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>295</v>
+        <v>394</v>
       </c>
       <c r="J59" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="K59">
         <v>4</v>
@@ -5196,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="O59" t="s">
         <v>39</v>
@@ -5219,13 +5219,13 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B60" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C60" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>295</v>
+        <v>394</v>
       </c>
       <c r="J60" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K60">
         <v>5</v>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="O60" t="s">
         <v>39</v>
@@ -5281,13 +5281,13 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B61" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C61" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -5305,10 +5305,10 @@
         <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>296</v>
+        <v>395</v>
       </c>
       <c r="J61" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="K61">
         <v>6</v>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="O61" t="s">
         <v>39</v>
@@ -5343,13 +5343,13 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B62" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C62" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -5367,10 +5367,10 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>293</v>
+        <v>391</v>
       </c>
       <c r="J62" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -5382,7 +5382,7 @@
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="O62" t="s">
         <v>39</v>
@@ -5405,13 +5405,13 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B63" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C63" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -5429,10 +5429,10 @@
         <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>221</v>
+        <v>385</v>
       </c>
       <c r="J63" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -5467,13 +5467,13 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B64" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C64" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -5491,10 +5491,10 @@
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>291</v>
+        <v>389</v>
       </c>
       <c r="J64" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -5506,7 +5506,7 @@
         <v>6</v>
       </c>
       <c r="N64" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="O64" t="s">
         <v>39</v>
@@ -5529,13 +5529,13 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B65" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C65" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -5553,10 +5553,10 @@
         <v>4</v>
       </c>
       <c r="I65" t="s">
-        <v>293</v>
+        <v>391</v>
       </c>
       <c r="J65" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>20</v>
       </c>
       <c r="N65" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="O65" t="s">
         <v>39</v>
@@ -5591,13 +5591,13 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B66" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C66" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -5615,10 +5615,10 @@
         <v>4</v>
       </c>
       <c r="I66" t="s">
-        <v>297</v>
+        <v>392</v>
       </c>
       <c r="J66" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -5653,13 +5653,13 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B67" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C67" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -5677,10 +5677,10 @@
         <v>4</v>
       </c>
       <c r="I67" t="s">
-        <v>298</v>
+        <v>393</v>
       </c>
       <c r="J67" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="O67" t="s">
         <v>39</v>
@@ -5715,13 +5715,13 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B68" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="C68" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -5739,7 +5739,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="J68" t="s">
         <v>8</v>
@@ -5777,13 +5777,13 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B69" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="C69" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -5801,7 +5801,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="J69" t="s">
         <v>8</v>
@@ -5839,31 +5839,31 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B70" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="C70" t="s">
+        <v>356</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>39</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70" t="s">
         <v>370</v>
-      </c>
-      <c r="D70">
-        <v>3</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70" t="s">
-        <v>39</v>
-      </c>
-      <c r="H70">
-        <v>2</v>
-      </c>
-      <c r="I70" t="s">
-        <v>384</v>
       </c>
       <c r="J70" t="s">
         <v>8</v>
@@ -5901,31 +5901,31 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="B71" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="C71" t="s">
+        <v>357</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71" t="s">
+        <v>39</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71" t="s">
         <v>371</v>
-      </c>
-      <c r="D71">
-        <v>3</v>
-      </c>
-      <c r="E71">
-        <v>2</v>
-      </c>
-      <c r="F71">
-        <v>3</v>
-      </c>
-      <c r="G71" t="s">
-        <v>39</v>
-      </c>
-      <c r="H71">
-        <v>2</v>
-      </c>
-      <c r="I71" t="s">
-        <v>385</v>
       </c>
       <c r="J71" t="s">
         <v>8</v>
@@ -5963,31 +5963,31 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="B72" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="C72" t="s">
+        <v>358</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72" t="s">
+        <v>39</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72" t="s">
         <v>372</v>
-      </c>
-      <c r="D72">
-        <v>3</v>
-      </c>
-      <c r="E72">
-        <v>2</v>
-      </c>
-      <c r="F72">
-        <v>2</v>
-      </c>
-      <c r="G72" t="s">
-        <v>39</v>
-      </c>
-      <c r="H72">
-        <v>2</v>
-      </c>
-      <c r="I72" t="s">
-        <v>386</v>
       </c>
       <c r="J72" t="s">
         <v>8</v>
@@ -6025,31 +6025,31 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B73" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C73" t="s">
+        <v>359</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>39</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73" t="s">
         <v>373</v>
-      </c>
-      <c r="D73">
-        <v>3</v>
-      </c>
-      <c r="E73">
-        <v>2</v>
-      </c>
-      <c r="F73">
-        <v>2</v>
-      </c>
-      <c r="G73" t="s">
-        <v>39</v>
-      </c>
-      <c r="H73">
-        <v>2</v>
-      </c>
-      <c r="I73" t="s">
-        <v>387</v>
       </c>
       <c r="J73" t="s">
         <v>8</v>
@@ -6087,31 +6087,31 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B74" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="C74" t="s">
+        <v>360</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74" t="s">
+        <v>39</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74" t="s">
         <v>374</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74">
-        <v>3</v>
-      </c>
-      <c r="F74">
-        <v>2</v>
-      </c>
-      <c r="G74" t="s">
-        <v>39</v>
-      </c>
-      <c r="H74">
-        <v>3</v>
-      </c>
-      <c r="I74" t="s">
-        <v>388</v>
       </c>
       <c r="J74" t="s">
         <v>8</v>
@@ -6149,31 +6149,31 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B75" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="C75" t="s">
+        <v>361</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75" t="s">
+        <v>39</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75" t="s">
         <v>375</v>
-      </c>
-      <c r="D75">
-        <v>3</v>
-      </c>
-      <c r="E75">
-        <v>3</v>
-      </c>
-      <c r="F75">
-        <v>3</v>
-      </c>
-      <c r="G75" t="s">
-        <v>39</v>
-      </c>
-      <c r="H75">
-        <v>3</v>
-      </c>
-      <c r="I75" t="s">
-        <v>389</v>
       </c>
       <c r="J75" t="s">
         <v>8</v>
@@ -6211,31 +6211,31 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="B76" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C76" t="s">
+        <v>362</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76" t="s">
+        <v>39</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76" t="s">
         <v>376</v>
-      </c>
-      <c r="D76">
-        <v>3</v>
-      </c>
-      <c r="E76">
-        <v>3</v>
-      </c>
-      <c r="F76">
-        <v>3</v>
-      </c>
-      <c r="G76" t="s">
-        <v>39</v>
-      </c>
-      <c r="H76">
-        <v>3</v>
-      </c>
-      <c r="I76" t="s">
-        <v>390</v>
       </c>
       <c r="J76" t="s">
         <v>8</v>
@@ -6273,13 +6273,13 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="B77" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="C77" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -6297,7 +6297,7 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="J77" t="s">
         <v>8</v>
@@ -6312,10 +6312,10 @@
         <v>0</v>
       </c>
       <c r="N77" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="O77" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -6335,13 +6335,13 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B78" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="C78" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -6359,7 +6359,7 @@
         <v>3</v>
       </c>
       <c r="I78" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="J78" t="s">
         <v>8</v>
@@ -6374,10 +6374,10 @@
         <v>0</v>
       </c>
       <c r="N78" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="O78" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -6397,13 +6397,13 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="B79" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="C79" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -6421,7 +6421,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="J79" t="s">
         <v>8</v>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="N79" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="O79" t="s">
         <v>39</v>
@@ -6459,13 +6459,13 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B80" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="C80" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="D80">
         <v>4</v>
@@ -6483,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="J80" t="s">
         <v>8</v>
@@ -6521,13 +6521,13 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B81" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C81" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="D81">
         <v>4</v>
@@ -6545,7 +6545,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="J81" t="s">
         <v>8</v>
@@ -6583,13 +6583,13 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="B82" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C82" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="D82">
         <v>4</v>
@@ -6607,7 +6607,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="J82" t="s">
         <v>8</v>
@@ -6645,13 +6645,13 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B83" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C83" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="D83">
         <v>4</v>
@@ -6669,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="J83" t="s">
         <v>8</v>

--- a/CardGame/Assets/Excel/CardData.xlsx
+++ b/CardGame/Assets/Excel/CardData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Card\CardGame\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2023137069\Git\CardGame\CardGame\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABCC3AA-0B60-462F-937B-68BBA112C4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="399">
   <si>
     <t>id</t>
   </si>
@@ -1158,12 +1157,6 @@
     <t>2 턴 동안 자신을 폭주 상태로 만들고 적을 흐림 상태로 만듭니다.</t>
   </si>
   <si>
-    <t>덱에 환각 카드 4장을 섞어넣습니다. 다음턴에 마나 2 더 얻습니다.</t>
-  </si>
-  <si>
-    <t>다음턴에 마나 2를 얻습니다.</t>
-  </si>
-  <si>
     <t>카드를 사용하지 않으면 턴이 종료될때 자신에게 [ad]피해를 주고 사라집니다.</t>
   </si>
   <si>
@@ -1219,17 +1212,29 @@
   </si>
   <si>
     <t>두개의 재단소를 합치면 다람쥐 정장 4장을 덱에 섞어 넣고 단추가 추가된 정장을 만듭니다.</t>
+  </si>
+  <si>
+    <t>덱에 환각 카드 4장을 섞어넣습니다. 이번턴에 마나 2 더 얻습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번턴에 마나 2를 얻습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRAW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1238,6 +1243,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1542,24 +1554,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="H46" workbookViewId="0">
+      <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="117.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="117.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1683,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1745,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1807,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1869,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1931,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1993,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -2055,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -2117,7 +2129,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -2179,7 +2191,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -2241,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -2303,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -2365,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -2427,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -2489,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -2551,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -2613,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -2639,7 +2651,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J18" t="s">
         <v>96</v>
@@ -2675,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -2737,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -2799,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -2861,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -2923,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -2985,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -3047,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -3109,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>122</v>
       </c>
@@ -3171,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>129</v>
       </c>
@@ -3233,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -3295,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>145</v>
       </c>
@@ -3357,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -3419,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>147</v>
       </c>
@@ -3481,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -3543,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>161</v>
       </c>
@@ -3605,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>162</v>
       </c>
@@ -3667,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>181</v>
       </c>
@@ -3693,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J35" t="s">
         <v>289</v>
@@ -3729,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>182</v>
       </c>
@@ -3755,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J36" t="s">
         <v>290</v>
@@ -3791,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>183</v>
       </c>
@@ -3817,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J37" t="s">
         <v>291</v>
@@ -3853,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>184</v>
       </c>
@@ -3879,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J38" t="s">
         <v>293</v>
@@ -3915,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>185</v>
       </c>
@@ -3941,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J39" t="s">
         <v>292</v>
@@ -3977,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>186</v>
       </c>
@@ -4003,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J40" t="s">
         <v>294</v>
@@ -4039,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>187</v>
       </c>
@@ -4065,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J41" t="s">
         <v>298</v>
@@ -4101,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>188</v>
       </c>
@@ -4163,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>189</v>
       </c>
@@ -4189,7 +4201,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J43" t="s">
         <v>295</v>
@@ -4225,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>190</v>
       </c>
@@ -4251,7 +4263,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J44" t="s">
         <v>296</v>
@@ -4266,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>219</v>
+        <v>398</v>
       </c>
       <c r="O44" t="s">
         <v>39</v>
@@ -4287,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>191</v>
       </c>
@@ -4313,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J45" t="s">
         <v>299</v>
@@ -4349,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>192</v>
       </c>
@@ -4375,7 +4387,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J46" t="s">
         <v>300</v>
@@ -4411,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>221</v>
       </c>
@@ -4437,7 +4449,7 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J47" t="s">
         <v>301</v>
@@ -4473,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>222</v>
       </c>
@@ -4499,7 +4511,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J48" t="s">
         <v>302</v>
@@ -4535,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>223</v>
       </c>
@@ -4561,7 +4573,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J49" t="s">
         <v>303</v>
@@ -4597,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>224</v>
       </c>
@@ -4623,7 +4635,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J50" t="s">
         <v>304</v>
@@ -4659,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>225</v>
       </c>
@@ -4685,7 +4697,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J51" t="s">
         <v>306</v>
@@ -4721,7 +4733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>226</v>
       </c>
@@ -4747,7 +4759,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J52" t="s">
         <v>305</v>
@@ -4783,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>227</v>
       </c>
@@ -4809,7 +4821,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J53" t="s">
         <v>307</v>
@@ -4845,7 +4857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>228</v>
       </c>
@@ -4871,7 +4883,7 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J54" t="s">
         <v>308</v>
@@ -4907,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>229</v>
       </c>
@@ -4933,7 +4945,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J55" t="s">
         <v>309</v>
@@ -4969,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>230</v>
       </c>
@@ -4995,7 +5007,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J56" t="s">
         <v>310</v>
@@ -5031,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>231</v>
       </c>
@@ -5057,7 +5069,7 @@
         <v>3</v>
       </c>
       <c r="I57" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J57" t="s">
         <v>311</v>
@@ -5093,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>232</v>
       </c>
@@ -5155,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>233</v>
       </c>
@@ -5181,7 +5193,7 @@
         <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J59" t="s">
         <v>313</v>
@@ -5217,7 +5229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>234</v>
       </c>
@@ -5243,7 +5255,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J60" t="s">
         <v>314</v>
@@ -5279,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>235</v>
       </c>
@@ -5305,7 +5317,7 @@
         <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J61" t="s">
         <v>315</v>
@@ -5341,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>236</v>
       </c>
@@ -5367,7 +5379,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J62" t="s">
         <v>316</v>
@@ -5403,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>237</v>
       </c>
@@ -5429,7 +5441,7 @@
         <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J63" t="s">
         <v>317</v>
@@ -5465,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>238</v>
       </c>
@@ -5491,7 +5503,7 @@
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J64" t="s">
         <v>318</v>
@@ -5527,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>239</v>
       </c>
@@ -5553,7 +5565,7 @@
         <v>4</v>
       </c>
       <c r="I65" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J65" t="s">
         <v>319</v>
@@ -5589,7 +5601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>240</v>
       </c>
@@ -5615,7 +5627,7 @@
         <v>4</v>
       </c>
       <c r="I66" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J66" t="s">
         <v>320</v>
@@ -5651,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>241</v>
       </c>
@@ -5677,7 +5689,7 @@
         <v>4</v>
       </c>
       <c r="I67" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J67" t="s">
         <v>321</v>
@@ -5713,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>322</v>
       </c>
@@ -5754,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>39</v>
+        <v>398</v>
       </c>
       <c r="O68" t="s">
         <v>39</v>
@@ -5775,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>323</v>
       </c>
@@ -5816,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>39</v>
+        <v>398</v>
       </c>
       <c r="O69" t="s">
         <v>39</v>
@@ -5837,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>324</v>
       </c>
@@ -5878,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>39</v>
+        <v>398</v>
       </c>
       <c r="O70" t="s">
         <v>39</v>
@@ -5899,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>325</v>
       </c>
@@ -5961,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>326</v>
       </c>
@@ -6023,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>327</v>
       </c>
@@ -6085,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>328</v>
       </c>
@@ -6147,7 +6159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>329</v>
       </c>
@@ -6209,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>330</v>
       </c>
@@ -6271,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>331</v>
       </c>
@@ -6297,7 +6309,7 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="J77" t="s">
         <v>8</v>
@@ -6315,7 +6327,7 @@
         <v>288</v>
       </c>
       <c r="O77" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -6333,7 +6345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>332</v>
       </c>
@@ -6359,7 +6371,7 @@
         <v>3</v>
       </c>
       <c r="I78" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="J78" t="s">
         <v>8</v>
@@ -6377,7 +6389,7 @@
         <v>288</v>
       </c>
       <c r="O78" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -6395,7 +6407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>333</v>
       </c>
@@ -6421,7 +6433,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="J79" t="s">
         <v>8</v>
@@ -6457,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>334</v>
       </c>
@@ -6483,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J80" t="s">
         <v>8</v>
@@ -6519,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>335</v>
       </c>
@@ -6545,7 +6557,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J81" t="s">
         <v>8</v>
@@ -6581,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>336</v>
       </c>
@@ -6607,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J82" t="s">
         <v>8</v>
@@ -6643,7 +6655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>337</v>
       </c>
@@ -6669,7 +6681,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J83" t="s">
         <v>8</v>
@@ -6706,6 +6718,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CardGame/Assets/Excel/CardData.xlsx
+++ b/CardGame/Assets/Excel/CardData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2023137069\Git\CardGame\CardGame\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Card\CardGame\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59527DCC-4F8C-4115-A267-0A49E8F0B37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="400">
   <si>
     <t>id</t>
   </si>
@@ -749,9 +750,6 @@
     <t>102022T</t>
   </si>
   <si>
-    <t>102022C</t>
-  </si>
-  <si>
     <t>Suit_001</t>
   </si>
   <si>
@@ -1194,12 +1192,6 @@
   </si>
   <si>
     <t>일시적으로 [fdp]체력을 얻습니다. 한턴에 [fdd]씩 2턴에 걸쳐 체력을 잃습니다.</t>
-  </si>
-  <si>
-    <t>즉시 체력을 [app]만큼 회복합니다.</t>
-  </si>
-  <si>
-    <t>무적 상태가 되고 남은 마나 1당 [app]만큼의 체력을 얻습니다. 만약 체력이 가득 찼다면 남은 만큼 방어력을 얻습니다.</t>
   </si>
   <si>
     <t>방어력을 [adp]만큼 얻습니다. 이번턴에 마나를 1 더 얻습니다.</t>
@@ -1224,17 +1216,29 @@
   <si>
     <t>DRAW</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102022H</t>
+  </si>
+  <si>
+    <t>일시적으로 20 체력을 얻습니다. 한턴에 [fdd]씩 2턴에 걸쳐 체력을 잃습니다.</t>
+  </si>
+  <si>
+    <t>즉시 체력을 20 만큼 회복합니다.</t>
+  </si>
+  <si>
+    <t>무적 상태가 되고 남은 마나 1당 5 만큼의 체력을 얻습니다. 만약 체력이 가득 찼다면 남은 만큼 방어력을 얻습니다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1246,7 +1250,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1554,24 +1558,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H46" workbookViewId="0">
-      <selection activeCell="N70" sqref="N70"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="117.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="117.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1633,7 +1637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1695,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1757,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1819,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1881,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1943,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2005,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -2067,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -2129,7 +2133,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -2191,7 +2195,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -2253,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -2315,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -2377,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -2439,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -2501,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -2563,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -2625,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -2651,7 +2655,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J18" t="s">
         <v>96</v>
@@ -2687,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -2749,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -2811,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -2873,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -2935,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -2997,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -3059,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -3121,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>122</v>
       </c>
@@ -3183,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>129</v>
       </c>
@@ -3245,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -3307,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>145</v>
       </c>
@@ -3369,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -3431,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>147</v>
       </c>
@@ -3493,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -3555,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>161</v>
       </c>
@@ -3617,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>162</v>
       </c>
@@ -3679,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>181</v>
       </c>
@@ -3705,10 +3709,10 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -3741,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>182</v>
       </c>
@@ -3767,10 +3771,10 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -3803,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>183</v>
       </c>
@@ -3829,10 +3833,10 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K37">
         <v>5</v>
@@ -3865,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>184</v>
       </c>
@@ -3891,10 +3895,10 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3927,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>185</v>
       </c>
@@ -3953,10 +3957,10 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3989,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>186</v>
       </c>
@@ -4015,10 +4019,10 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -4051,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>187</v>
       </c>
@@ -4077,10 +4081,10 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K41">
         <v>3</v>
@@ -4113,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
         <v>188</v>
       </c>
@@ -4142,7 +4146,7 @@
         <v>220</v>
       </c>
       <c r="J42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -4175,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>189</v>
       </c>
@@ -4201,10 +4205,10 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -4237,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>190</v>
       </c>
@@ -4263,10 +4267,10 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K44">
         <v>4</v>
@@ -4278,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O44" t="s">
         <v>39</v>
@@ -4299,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
         <v>191</v>
       </c>
@@ -4325,10 +4329,10 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K45">
         <v>5</v>
@@ -4361,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>192</v>
       </c>
@@ -4387,10 +4391,10 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J46" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K46">
         <v>6</v>
@@ -4423,15 +4427,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>221</v>
       </c>
       <c r="B47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -4449,10 +4453,10 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J47" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -4485,15 +4489,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
         <v>222</v>
       </c>
       <c r="B48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C48" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -4511,10 +4515,10 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J48" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -4547,15 +4551,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
         <v>223</v>
       </c>
       <c r="B49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D49">
         <v>4</v>
@@ -4573,10 +4577,10 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -4609,15 +4613,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
         <v>224</v>
       </c>
       <c r="B50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -4635,10 +4639,10 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J50" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -4650,7 +4654,7 @@
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O50" t="s">
         <v>39</v>
@@ -4671,15 +4675,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
         <v>225</v>
       </c>
       <c r="B51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -4697,10 +4701,10 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -4712,7 +4716,7 @@
         <v>6</v>
       </c>
       <c r="N51" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O51" t="s">
         <v>143</v>
@@ -4733,15 +4737,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
         <v>226</v>
       </c>
       <c r="B52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -4759,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J52" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -4774,7 +4778,7 @@
         <v>7</v>
       </c>
       <c r="N52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O52" t="s">
         <v>39</v>
@@ -4795,15 +4799,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20">
       <c r="A53" t="s">
         <v>227</v>
       </c>
       <c r="B53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C53" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -4821,10 +4825,10 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J53" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K53">
         <v>10</v>
@@ -4857,15 +4861,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20">
       <c r="A54" t="s">
         <v>228</v>
       </c>
       <c r="B54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C54" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -4883,10 +4887,10 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J54" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K54">
         <v>14</v>
@@ -4919,15 +4923,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
         <v>229</v>
       </c>
       <c r="B55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C55" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -4945,10 +4949,10 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J55" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K55">
         <v>18</v>
@@ -4981,15 +4985,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20">
       <c r="A56" t="s">
         <v>230</v>
       </c>
       <c r="B56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C56" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -5007,10 +5011,10 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J56" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -5022,7 +5026,7 @@
         <v>10</v>
       </c>
       <c r="N56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O56" t="s">
         <v>39</v>
@@ -5043,15 +5047,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
         <v>231</v>
       </c>
       <c r="B57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C57" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -5069,10 +5073,10 @@
         <v>3</v>
       </c>
       <c r="I57" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J57" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -5084,7 +5088,7 @@
         <v>20</v>
       </c>
       <c r="N57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O57" t="s">
         <v>39</v>
@@ -5105,15 +5109,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20">
       <c r="A58" t="s">
         <v>232</v>
       </c>
       <c r="B58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C58" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -5131,10 +5135,10 @@
         <v>3</v>
       </c>
       <c r="I58" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J58" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -5146,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O58" t="s">
         <v>39</v>
@@ -5167,15 +5171,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20">
       <c r="A59" t="s">
         <v>233</v>
       </c>
       <c r="B59" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C59" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -5193,10 +5197,10 @@
         <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J59" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K59">
         <v>4</v>
@@ -5208,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O59" t="s">
         <v>39</v>
@@ -5229,15 +5233,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
         <v>234</v>
       </c>
       <c r="B60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C60" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -5255,10 +5259,10 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J60" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K60">
         <v>5</v>
@@ -5270,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O60" t="s">
         <v>39</v>
@@ -5291,15 +5295,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20">
       <c r="A61" t="s">
         <v>235</v>
       </c>
       <c r="B61" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C61" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -5317,10 +5321,10 @@
         <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K61">
         <v>6</v>
@@ -5332,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O61" t="s">
         <v>39</v>
@@ -5353,15 +5357,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20">
       <c r="A62" t="s">
         <v>236</v>
       </c>
       <c r="B62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C62" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -5379,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J62" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -5394,7 +5398,7 @@
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O62" t="s">
         <v>39</v>
@@ -5415,15 +5419,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20">
       <c r="A63" t="s">
         <v>237</v>
       </c>
       <c r="B63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C63" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -5441,10 +5445,10 @@
         <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J63" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -5477,15 +5481,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20">
       <c r="A64" t="s">
         <v>238</v>
       </c>
       <c r="B64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C64" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -5503,10 +5507,10 @@
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J64" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -5518,7 +5522,7 @@
         <v>6</v>
       </c>
       <c r="N64" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O64" t="s">
         <v>39</v>
@@ -5539,15 +5543,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>239</v>
       </c>
       <c r="B65" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -5565,10 +5569,10 @@
         <v>4</v>
       </c>
       <c r="I65" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="J65" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -5580,7 +5584,7 @@
         <v>20</v>
       </c>
       <c r="N65" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O65" t="s">
         <v>39</v>
@@ -5601,15 +5605,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
         <v>240</v>
       </c>
       <c r="B66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C66" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -5627,10 +5631,10 @@
         <v>4</v>
       </c>
       <c r="I66" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="J66" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -5663,15 +5667,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
-        <v>241</v>
+        <v>396</v>
       </c>
       <c r="B67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C67" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -5689,10 +5693,10 @@
         <v>4</v>
       </c>
       <c r="I67" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="J67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -5704,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O67" t="s">
         <v>39</v>
@@ -5725,15 +5729,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20">
       <c r="A68" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B68" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C68" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -5751,7 +5755,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J68" t="s">
         <v>8</v>
@@ -5766,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O68" t="s">
         <v>39</v>
@@ -5787,15 +5791,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20">
       <c r="A69" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B69" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -5813,7 +5817,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J69" t="s">
         <v>8</v>
@@ -5828,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O69" t="s">
         <v>39</v>
@@ -5849,15 +5853,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B70" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C70" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -5875,7 +5879,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J70" t="s">
         <v>8</v>
@@ -5890,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O70" t="s">
         <v>39</v>
@@ -5911,15 +5915,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B71" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -5937,7 +5941,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J71" t="s">
         <v>8</v>
@@ -5973,15 +5977,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B72" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C72" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -5999,7 +6003,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J72" t="s">
         <v>8</v>
@@ -6035,15 +6039,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B73" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C73" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -6061,7 +6065,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J73" t="s">
         <v>8</v>
@@ -6097,15 +6101,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20">
       <c r="A74" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C74" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -6123,7 +6127,7 @@
         <v>3</v>
       </c>
       <c r="I74" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J74" t="s">
         <v>8</v>
@@ -6159,15 +6163,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20">
       <c r="A75" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B75" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C75" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D75">
         <v>3</v>
@@ -6185,7 +6189,7 @@
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J75" t="s">
         <v>8</v>
@@ -6221,15 +6225,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20">
       <c r="A76" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B76" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C76" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -6247,7 +6251,7 @@
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J76" t="s">
         <v>8</v>
@@ -6283,15 +6287,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20">
       <c r="A77" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B77" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C77" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -6309,7 +6313,7 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J77" t="s">
         <v>8</v>
@@ -6324,10 +6328,10 @@
         <v>0</v>
       </c>
       <c r="N77" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O77" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -6345,15 +6349,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20">
       <c r="A78" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B78" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C78" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -6371,7 +6375,7 @@
         <v>3</v>
       </c>
       <c r="I78" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J78" t="s">
         <v>8</v>
@@ -6386,10 +6390,10 @@
         <v>0</v>
       </c>
       <c r="N78" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O78" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -6407,15 +6411,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20">
       <c r="A79" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B79" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C79" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -6433,7 +6437,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J79" t="s">
         <v>8</v>
@@ -6448,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="N79" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O79" t="s">
         <v>39</v>
@@ -6469,15 +6473,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20">
       <c r="A80" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B80" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C80" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D80">
         <v>4</v>
@@ -6495,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J80" t="s">
         <v>8</v>
@@ -6531,15 +6535,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B81" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C81" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D81">
         <v>4</v>
@@ -6557,7 +6561,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J81" t="s">
         <v>8</v>
@@ -6593,15 +6597,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20">
       <c r="A82" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B82" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C82" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D82">
         <v>4</v>
@@ -6619,7 +6623,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J82" t="s">
         <v>8</v>
@@ -6655,15 +6659,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20">
       <c r="A83" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B83" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C83" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D83">
         <v>4</v>
@@ -6681,7 +6685,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J83" t="s">
         <v>8</v>
